--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="510">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.cqdg.ca/StructureDefinition/cqdg-patient</t>
+    <t>https://fhir.cqdg.ca/StructureDefinition/cqdg-patient</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T14:10:57-04:00</t>
+    <t>2023-04-28T18:08:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -611,7 +611,7 @@
     <t>ageOfDeath</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://fhir.cqdg.ca/StructureDefinition/AgeOfDeath}
+    <t xml:space="preserve">Extension {https://fhir.cqdg.ca/StructureDefinition/AgeOfDeath}
 </t>
   </si>
   <si>
@@ -631,7 +631,7 @@
     <t>ageAtRecruitment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://fhir.cqdg.ca/StructureDefinition/AgeAtRecruitment}
+    <t xml:space="preserve">Extension {https://fhir.cqdg.ca/StructureDefinition/AgeAtRecruitment}
 </t>
   </si>
   <si>
@@ -647,7 +647,7 @@
     <t>ethnicity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://fhir.cqdg.ca/StructureDefinition/QCEthnicity}
+    <t xml:space="preserve">Extension {https://fhir.cqdg.ca/StructureDefinition/QCEthnicity}
 </t>
   </si>
   <si>
@@ -655,6 +655,77 @@
   </si>
   <si>
     <t>qc ethnicity for cqdg project</t>
+  </si>
+  <si>
+    <t>Patient.extension:ethnicity.id</t>
+  </si>
+  <si>
+    <t>Patient.extension.id</t>
+  </si>
+  <si>
+    <t>Patient.extension:ethnicity.extension</t>
+  </si>
+  <si>
+    <t>Patient.extension.extension</t>
+  </si>
+  <si>
+    <t>Patient.extension:ethnicity.url</t>
+  </si>
+  <si>
+    <t>Patient.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>https://fhir.cqdg.ca/StructureDefinition/QCEthnicity</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Patient.extension:ethnicity.value[x]</t>
+  </si>
+  <si>
+    <t>Patient.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Patient.extension:ethnicity.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://fhir.cqdg.ca/ValueSet/qc-ethnicity-vs</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -744,9 +815,6 @@
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
@@ -763,10 +831,6 @@
   </si>
   <si>
     <t>Patient.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Description of identifier</t>
@@ -1832,7 +1896,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO66"/>
+  <dimension ref="A1:AO71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1841,9 +1905,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.61328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1851,7 +1915,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="64.9921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="65.9453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4226,43 +4290,39 @@
         <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4310,22 +4370,22 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>103</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>79</v>
@@ -4342,10 +4402,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4353,10 +4413,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4365,21 +4425,19 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4415,17 +4473,19 @@
         <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AC22" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="AD22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>211</v>
+        <v>114</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4437,19 +4497,19 @@
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4457,14 +4517,12 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>223</v>
-      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4482,27 +4540,27 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>79</v>
@@ -4544,31 +4602,31 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4576,10 +4634,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4602,13 +4660,13 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>100</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>102</v>
+        <v>221</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4647,19 +4705,17 @@
         <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>103</v>
+        <v>224</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4671,10 +4727,10 @@
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>79</v>
@@ -4691,21 +4747,23 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C25" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="B25" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4717,17 +4775,15 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4752,46 +4808,44 @@
         <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
@@ -4808,21 +4862,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>229</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -4831,10 +4885,10 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>230</v>
@@ -4843,10 +4897,10 @@
         <v>231</v>
       </c>
       <c r="N26" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O26" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -4871,13 +4925,13 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -4895,22 +4949,22 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>79</v>
@@ -4919,7 +4973,7 @@
         <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -4927,10 +4981,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4938,10 +4992,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -4953,19 +5007,17 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -4990,37 +5042,35 @@
         <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
@@ -5029,16 +5079,16 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -5046,12 +5096,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5072,19 +5124,17 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -5094,10 +5144,10 @@
         <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>79</v>
@@ -5133,13 +5183,13 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
@@ -5148,16 +5198,16 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5165,10 +5215,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5188,20 +5238,18 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>100</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>101</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5214,7 +5262,7 @@
         <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>79</v>
@@ -5250,7 +5298,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>267</v>
+        <v>103</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5262,10 +5310,10 @@
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>268</v>
+        <v>104</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>79</v>
@@ -5274,7 +5322,7 @@
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5282,21 +5330,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5305,18 +5353,20 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>272</v>
+        <v>107</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>108</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -5353,34 +5403,34 @@
         <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>114</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>276</v>
+        <v>104</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>79</v>
@@ -5389,7 +5439,7 @@
         <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5397,10 +5447,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5417,24 +5467,26 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>280</v>
+        <v>162</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5458,13 +5510,13 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>79</v>
@@ -5482,7 +5534,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5497,7 +5549,7 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>79</v>
@@ -5506,7 +5558,7 @@
         <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>286</v>
+        <v>185</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5514,10 +5566,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5534,32 +5586,30 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>288</v>
+        <v>219</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q32" t="s" s="2">
-        <v>293</v>
-      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5579,13 +5629,13 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -5603,7 +5653,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5618,16 +5668,16 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5635,10 +5685,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5646,10 +5696,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -5661,19 +5711,19 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>297</v>
+        <v>128</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5683,10 +5733,10 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>79</v>
@@ -5722,13 +5772,13 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
@@ -5737,16 +5787,16 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -5754,10 +5804,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5768,7 +5818,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -5780,20 +5830,18 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>306</v>
+        <v>100</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>79</v>
       </c>
@@ -5805,7 +5853,7 @@
         <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>79</v>
@@ -5841,13 +5889,13 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
@@ -5856,16 +5904,16 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
@@ -5873,10 +5921,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5899,20 +5947,16 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>162</v>
+        <v>293</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5936,13 +5980,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>320</v>
+        <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -5960,7 +6004,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5975,16 +6019,16 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -5992,10 +6036,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6018,20 +6062,18 @@
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6079,7 +6121,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6094,27 +6136,27 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6137,24 +6179,26 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="R37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6198,7 +6242,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6213,16 +6257,16 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6230,10 +6274,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6256,19 +6300,19 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6317,7 +6361,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6332,16 +6376,16 @@
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6349,10 +6393,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6363,7 +6407,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6372,20 +6416,22 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>241</v>
+        <v>327</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O39" t="s" s="2">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6410,13 +6456,13 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>79</v>
@@ -6434,13 +6480,13 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
@@ -6449,16 +6495,16 @@
         <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -6466,10 +6512,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6489,22 +6535,22 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>361</v>
+        <v>162</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -6529,13 +6575,13 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -6553,7 +6599,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6568,16 +6614,16 @@
         <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>104</v>
+        <v>343</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -6585,10 +6631,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6599,7 +6645,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6608,22 +6654,22 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -6672,13 +6718,13 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
@@ -6687,27 +6733,27 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>104</v>
+        <v>352</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6718,31 +6764,31 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6791,22 +6837,22 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>382</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>104</v>
@@ -6815,7 +6861,7 @@
         <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -6823,10 +6869,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6837,7 +6883,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6846,19 +6892,23 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>100</v>
+        <v>364</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>101</v>
+        <v>365</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6906,31 +6956,31 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>103</v>
+        <v>363</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>104</v>
+        <v>369</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -6938,21 +6988,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6964,18 +7014,18 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>108</v>
+        <v>373</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
       </c>
@@ -6999,13 +7049,13 @@
         <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>79</v>
@@ -7023,31 +7073,31 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>114</v>
+        <v>372</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>104</v>
+        <v>378</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -7055,45 +7105,45 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>107</v>
+        <v>382</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>110</v>
+        <v>385</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>209</v>
+        <v>386</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7142,31 +7192,31 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>185</v>
+        <v>387</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>79</v>
+        <v>388</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7174,10 +7224,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7200,15 +7250,17 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>241</v>
+        <v>390</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>394</v>
       </c>
@@ -7235,13 +7287,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7259,7 +7311,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7274,7 +7326,7 @@
         <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>104</v>
@@ -7283,7 +7335,7 @@
         <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7291,10 +7343,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7305,7 +7357,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7317,15 +7369,17 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>297</v>
+        <v>398</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>402</v>
       </c>
@@ -7376,22 +7430,22 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>98</v>
+        <v>403</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>302</v>
+        <v>404</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>104</v>
@@ -7400,7 +7454,7 @@
         <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7408,10 +7462,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7422,7 +7476,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7434,20 +7488,16 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>306</v>
+        <v>100</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>405</v>
+        <v>101</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7495,31 +7545,31 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>404</v>
+        <v>103</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>311</v>
+        <v>104</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7527,21 +7577,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7553,18 +7603,18 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>343</v>
+        <v>107</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>410</v>
+        <v>108</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7612,31 +7662,31 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>409</v>
+        <v>114</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>348</v>
+        <v>104</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -7644,43 +7694,45 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>79</v>
+        <v>408</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>315</v>
+        <v>409</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>416</v>
+        <v>232</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
@@ -7705,13 +7757,13 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>320</v>
+        <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
@@ -7729,31 +7781,31 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>321</v>
+        <v>185</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -7761,10 +7813,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7775,7 +7827,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7787,17 +7839,17 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>280</v>
+        <v>219</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -7822,13 +7874,13 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -7846,22 +7898,22 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>104</v>
@@ -7870,7 +7922,7 @@
         <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -7878,10 +7930,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7904,16 +7956,18 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
       </c>
@@ -7961,7 +8015,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7976,7 +8030,7 @@
         <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>428</v>
+        <v>323</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>104</v>
@@ -7985,7 +8039,7 @@
         <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -7993,10 +8047,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8019,19 +8073,19 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>433</v>
+        <v>331</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -8080,7 +8134,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8095,16 +8149,16 @@
         <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>434</v>
+        <v>332</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>435</v>
+        <v>104</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8112,10 +8166,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8138,16 +8192,18 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>100</v>
+        <v>364</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>101</v>
+        <v>431</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>102</v>
+        <v>432</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8195,7 +8251,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>103</v>
+        <v>430</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8207,19 +8263,19 @@
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8227,21 +8283,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8253,18 +8309,18 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>108</v>
+        <v>336</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8288,13 +8344,13 @@
         <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
@@ -8312,31 +8368,31 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>114</v>
+        <v>435</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8344,45 +8400,43 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>107</v>
+        <v>301</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>209</v>
+        <v>442</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -8431,31 +8485,31 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>185</v>
+        <v>444</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>79</v>
+        <v>445</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>79</v>
@@ -8463,10 +8517,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8474,7 +8528,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>86</v>
@@ -8489,20 +8543,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8526,13 +8576,13 @@
         <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>79</v>
@@ -8550,10 +8600,10 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>86</v>
@@ -8565,16 +8615,16 @@
         <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>445</v>
+        <v>104</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>79</v>
@@ -8582,10 +8632,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8596,7 +8646,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8608,19 +8658,19 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>288</v>
+        <v>398</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -8669,13 +8719,13 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
@@ -8684,16 +8734,16 @@
         <v>98</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>79</v>
@@ -8701,21 +8751,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8727,17 +8777,15 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>457</v>
+        <v>100</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>458</v>
+        <v>101</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -8786,31 +8834,31 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>455</v>
+        <v>103</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>461</v>
+        <v>104</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>79</v>
@@ -8818,21 +8866,21 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -8841,23 +8889,21 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>280</v>
+        <v>107</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>464</v>
+        <v>108</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>465</v>
+        <v>109</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8905,25 +8951,25 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>463</v>
+        <v>114</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>423</v>
+        <v>104</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -8937,14 +8983,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>79</v>
+        <v>408</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8963,19 +9009,19 @@
         <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>377</v>
+        <v>107</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>470</v>
+        <v>409</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>471</v>
+        <v>410</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>472</v>
+        <v>110</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>473</v>
+        <v>232</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -9024,7 +9070,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>469</v>
+        <v>411</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9036,13 +9082,13 @@
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>474</v>
+        <v>185</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9056,10 +9102,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9067,7 +9113,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>86</v>
@@ -9082,16 +9128,20 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>100</v>
+        <v>219</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>101</v>
+        <v>461</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9115,13 +9165,13 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
@@ -9139,10 +9189,10 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>103</v>
+        <v>460</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>86</v>
@@ -9151,19 +9201,19 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>104</v>
+        <v>465</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>79</v>
@@ -9171,21 +9221,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9197,18 +9247,20 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>107</v>
+        <v>309</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>108</v>
+        <v>469</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>109</v>
+        <v>470</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9256,31 +9308,31 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>114</v>
+        <v>468</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>104</v>
+        <v>473</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>79</v>
+        <v>474</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -9288,14 +9340,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>387</v>
+        <v>477</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9308,26 +9360,24 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>107</v>
+        <v>478</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>388</v>
+        <v>479</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>389</v>
+        <v>480</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9375,7 +9425,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>390</v>
+        <v>476</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9387,19 +9437,19 @@
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>185</v>
+        <v>482</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
@@ -9407,10 +9457,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9418,7 +9468,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>86</v>
@@ -9433,18 +9483,20 @@
         <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>479</v>
+        <v>301</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9492,10 +9544,10 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>86</v>
@@ -9507,16 +9559,16 @@
         <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>218</v>
+        <v>444</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>104</v>
+        <v>489</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>79</v>
@@ -9524,10 +9576,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9535,31 +9587,35 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>162</v>
+        <v>398</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>494</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9583,13 +9639,13 @@
         <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
@@ -9607,13 +9663,13 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>79</v>
@@ -9622,7 +9678,7 @@
         <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>104</v>
@@ -9634,6 +9690,589 @@
         <v>79</v>
       </c>
       <c r="AO66" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO71" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T18:08:06+00:00</t>
+    <t>2023-05-01T14:10:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T14:10:01+00:00</t>
+    <t>2023-05-01T15:10:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T15:10:49+00:00</t>
+    <t>2023-05-08T15:26:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T15:26:10+00:00</t>
+    <t>2023-05-11T13:00:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$62</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="446">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T13:00:33+00:00</t>
+    <t>2023-05-11T21:57:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -596,6 +599,9 @@
     <t>Patient.extension</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -615,10 +621,10 @@
 </t>
   </si>
   <si>
-    <t>Ferlab.bio Extension/age-of-death</t>
-  </si>
-  <si>
-    <t>Age Of Death Extension</t>
+    <t>Age at event</t>
+  </si>
+  <si>
+    <t>Age at the time of medical consultation</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -635,12 +641,6 @@
 </t>
   </si>
   <si>
-    <t>Ferlab.bio Extension/age-at-recruitment</t>
-  </si>
-  <si>
-    <t>Age At Recruitment Extension</t>
-  </si>
-  <si>
     <t>Patient.extension:ethnicity</t>
   </si>
   <si>
@@ -760,13 +760,6 @@
     <t>Patients are almost always assigned specific numerical identifiers.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>openAtEnd</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -777,197 +770,6 @@
   </si>
   <si>
     <t>PID-3</t>
-  </si>
-  <si>
-    <t>Patient.identifier:CQDG_ID</t>
-  </si>
-  <si>
-    <t>CQDG_ID</t>
-  </si>
-  <si>
-    <t>Patient.identifier:CQDG_ID.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier:CQDG_ID.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier:CQDG_ID.use</t>
-  </si>
-  <si>
-    <t>Patient.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Patient.identifier:CQDG_ID.type</t>
-  </si>
-  <si>
-    <t>Patient.identifier.type</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Patient.identifier:CQDG_ID.system</t>
-  </si>
-  <si>
-    <t>Patient.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>https://fhir.cqdg.ca/fhir/Patient</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>Patient.identifier:CQDG_ID.value</t>
-  </si>
-  <si>
-    <t>Patient.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>Patient.identifier:CQDG_ID.period</t>
-  </si>
-  <si>
-    <t>Patient.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Patient.identifier:CQDG_ID.assigner</t>
-  </si>
-  <si>
-    <t>Patient.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -1384,6 +1186,10 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
     <t>Organization that is associated with the contact</t>
   </si>
   <si>
@@ -1404,6 +1210,10 @@
   </si>
   <si>
     <t>Patient.contact.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
   </si>
   <si>
     <t>The period during which this contact person or organization is valid to be contacted relating to this patient</t>
@@ -1728,6 +1538,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1896,7 +1721,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO71"/>
+  <dimension ref="A1:AO62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1924,7 +1749,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
@@ -2072,7 +1897,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
@@ -2187,7 +2012,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>85</v>
       </c>
@@ -2304,7 +2129,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>93</v>
       </c>
@@ -2419,7 +2244,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>99</v>
       </c>
@@ -2534,7 +2359,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>105</v>
       </c>
@@ -2651,7 +2476,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>116</v>
       </c>
@@ -2768,7 +2593,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>121</v>
       </c>
@@ -2885,7 +2710,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>127</v>
       </c>
@@ -3002,7 +2827,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>133</v>
       </c>
@@ -3119,7 +2944,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>139</v>
       </c>
@@ -3236,7 +3061,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>148</v>
       </c>
@@ -3353,7 +3178,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>156</v>
       </c>
@@ -3470,7 +3295,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>161</v>
       </c>
@@ -3587,7 +3412,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>170</v>
       </c>
@@ -3704,7 +3529,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>178</v>
       </c>
@@ -3821,7 +3646,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>186</v>
       </c>
@@ -3834,7 +3659,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>78</v>
@@ -3852,10 +3677,10 @@
         <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3904,7 +3729,7 @@
         <v>113</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3934,28 +3759,28 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>186</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>79</v>
@@ -3964,13 +3789,13 @@
         <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4021,7 +3846,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -4030,7 +3855,7 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>115</v>
@@ -4051,28 +3876,28 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>186</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>79</v>
@@ -4081,13 +3906,13 @@
         <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4138,7 +3963,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -4147,7 +3972,7 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>115</v>
@@ -4168,15 +3993,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>186</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>79</v>
@@ -4198,13 +4023,13 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4255,7 +4080,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4264,7 +4089,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>115</v>
@@ -4285,12 +4110,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4400,12 +4225,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4431,10 +4256,10 @@
         <v>107</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4515,12 +4340,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4546,13 +4371,13 @@
         <v>128</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4560,49 +4385,49 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4632,12 +4457,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4660,13 +4485,13 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4705,17 +4530,17 @@
         <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4745,15 +4570,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="C25" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>79</v>
@@ -4775,13 +4600,13 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4808,11 +4633,11 @@
         <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>79</v>
@@ -4830,7 +4655,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4860,12 +4685,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4891,16 +4716,16 @@
         <v>107</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="N26" t="s" s="2">
         <v>110</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -4949,7 +4774,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4979,12 +4804,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4992,7 +4817,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>78</v>
@@ -5007,17 +4832,17 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -5054,17 +4879,19 @@
         <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AC27" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5079,37 +4906,35 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AM27" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>245</v>
-      </c>
       <c r="B28" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>86</v>
@@ -5118,28 +4943,32 @@
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O28" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="R28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5183,13 +5012,13 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
@@ -5198,27 +5027,27 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>242</v>
+        <v>104</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5229,7 +5058,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -5238,19 +5067,23 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>100</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>101</v>
+        <v>253</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5298,46 +5131,46 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>103</v>
+        <v>251</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>104</v>
+        <v>257</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5353,21 +5186,23 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>108</v>
+        <v>262</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5403,19 +5238,19 @@
         <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>114</v>
+        <v>260</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5427,30 +5262,30 @@
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5467,7 +5302,7 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>87</v>
@@ -5476,16 +5311,16 @@
         <v>162</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -5510,13 +5345,13 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>79</v>
@@ -5534,7 +5369,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5549,27 +5384,27 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>185</v>
+        <v>278</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5592,19 +5427,19 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -5629,13 +5464,13 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -5653,7 +5488,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5668,27 +5503,27 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>79</v>
+        <v>288</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5696,7 +5531,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>86</v>
@@ -5705,25 +5540,25 @@
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>128</v>
+        <v>290</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5733,10 +5568,10 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>79</v>
@@ -5772,7 +5607,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5787,27 +5622,27 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5818,7 +5653,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -5830,18 +5665,20 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>100</v>
+        <v>298</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
       </c>
@@ -5853,7 +5690,7 @@
         <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>79</v>
@@ -5889,13 +5726,13 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
@@ -5904,27 +5741,27 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5944,19 +5781,21 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>293</v>
+        <v>218</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5980,13 +5819,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -6004,7 +5843,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6019,27 +5858,27 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6059,21 +5898,23 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6121,7 +5962,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6136,27 +5977,27 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6167,38 +6008,36 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q37" t="s" s="2">
-        <v>314</v>
-      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6242,13 +6081,13 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
@@ -6257,27 +6096,27 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>316</v>
+        <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6297,22 +6136,22 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6361,7 +6200,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6373,30 +6212,30 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>337</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>324</v>
+        <v>104</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6407,7 +6246,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6416,23 +6255,19 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>327</v>
+        <v>100</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>328</v>
+        <v>101</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6480,53 +6315,53 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>326</v>
+        <v>103</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6535,23 +6370,21 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>336</v>
+        <v>108</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>337</v>
+        <v>109</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6575,101 +6408,101 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AA40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="B41" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>79</v>
+        <v>342</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>346</v>
+        <v>107</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>349</v>
+        <v>110</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>350</v>
+        <v>231</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -6724,36 +6557,36 @@
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>351</v>
+        <v>185</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6764,31 +6597,29 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>356</v>
+        <v>218</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6813,13 +6644,13 @@
         <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>79</v>
@@ -6837,13 +6668,13 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
@@ -6852,7 +6683,7 @@
         <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>104</v>
@@ -6861,18 +6692,18 @@
         <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6883,7 +6714,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6892,22 +6723,20 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>364</v>
+        <v>252</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -6956,13 +6785,13 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
@@ -6971,27 +6800,27 @@
         <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>369</v>
+        <v>257</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>370</v>
+        <v>104</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7002,7 +6831,7 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7014,17 +6843,19 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>375</v>
+        <v>265</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -7049,13 +6880,13 @@
         <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>377</v>
+        <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>79</v>
@@ -7073,13 +6904,13 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
@@ -7088,27 +6919,27 @@
         <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>378</v>
+        <v>266</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>379</v>
+        <v>104</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7131,19 +6962,17 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>382</v>
+        <v>298</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7192,7 +7021,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7207,7 +7036,7 @@
         <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>387</v>
+        <v>303</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>104</v>
@@ -7216,18 +7045,18 @@
         <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7238,7 +7067,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7250,19 +7079,17 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>390</v>
+        <v>162</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>391</v>
+        <v>270</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7287,13 +7114,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7311,13 +7138,13 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>79</v>
@@ -7326,7 +7153,7 @@
         <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>395</v>
+        <v>276</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>104</v>
@@ -7335,18 +7162,18 @@
         <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7357,7 +7184,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7369,19 +7196,17 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7430,22 +7255,22 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>403</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>104</v>
@@ -7454,18 +7279,18 @@
         <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7488,13 +7313,13 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>100</v>
+        <v>382</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>101</v>
+        <v>383</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>102</v>
+        <v>384</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7545,7 +7370,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>103</v>
+        <v>381</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7557,14 +7382,14 @@
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AL48" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7575,16 +7400,16 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7603,18 +7428,20 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>107</v>
+        <v>332</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>108</v>
+        <v>387</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>109</v>
+        <v>388</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7662,7 +7489,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>114</v>
+        <v>386</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7674,13 +7501,13 @@
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>104</v>
+        <v>391</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7692,48 +7519,44 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>409</v>
+        <v>101</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7781,22 +7604,22 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>411</v>
+        <v>103</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
@@ -7811,16 +7634,16 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7839,18 +7662,18 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>413</v>
+        <v>108</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7874,13 +7697,13 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -7898,7 +7721,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>412</v>
+        <v>114</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7910,63 +7733,65 @@
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>418</v>
+        <v>104</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>79</v>
+        <v>342</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>318</v>
+        <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>421</v>
+        <v>343</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>423</v>
+        <v>231</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8015,42 +7840,42 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>420</v>
+        <v>345</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>323</v>
+        <v>185</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8058,10 +7883,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8073,19 +7898,19 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>327</v>
+        <v>218</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>427</v>
+        <v>398</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -8110,13 +7935,13 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -8134,13 +7959,13 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
@@ -8149,27 +7974,27 @@
         <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>332</v>
+        <v>401</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>104</v>
+        <v>402</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8192,17 +8017,19 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>364</v>
+        <v>243</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O54" t="s" s="2">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8251,7 +8078,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8266,38 +8093,38 @@
         <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>104</v>
+        <v>410</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8309,18 +8136,18 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>162</v>
+        <v>414</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8344,13 +8171,13 @@
         <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
@@ -8368,13 +8195,13 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
@@ -8383,7 +8210,7 @@
         <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>342</v>
+        <v>418</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>104</v>
@@ -8392,18 +8219,18 @@
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8423,20 +8250,22 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>301</v>
+        <v>374</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O56" t="s" s="2">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -8485,7 +8314,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8494,33 +8323,33 @@
         <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>444</v>
+        <v>379</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>104</v>
+        <v>425</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8531,28 +8360,32 @@
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8600,13 +8433,13 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
@@ -8615,7 +8448,7 @@
         <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>104</v>
@@ -8630,12 +8463,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8646,7 +8479,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8658,20 +8491,16 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>398</v>
+        <v>100</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>451</v>
+        <v>101</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8719,25 +8548,25 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>450</v>
+        <v>103</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>455</v>
+        <v>104</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8749,23 +8578,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8777,15 +8606,17 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -8834,19 +8665,19 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>104</v>
@@ -8864,16 +8695,16 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>106</v>
+        <v>342</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8886,24 +8717,26 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>107</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>108</v>
+        <v>343</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>109</v>
+        <v>344</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="O60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8951,7 +8784,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>114</v>
+        <v>345</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8966,7 +8799,7 @@
         <v>115</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
@@ -8981,48 +8814,46 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>107</v>
+        <v>436</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9070,42 +8901,42 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9125,23 +8956,19 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9165,13 +8992,13 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>167</v>
+        <v>443</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>168</v>
+        <v>444</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
@@ -9189,7 +9016,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>86</v>
@@ -9204,1079 +9031,40 @@
         <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>466</v>
+        <v>104</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>467</v>
+        <v>79</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O64" s="2"/>
-      <c r="P64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="P65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="P66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="P69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO71" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AO62">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI61">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="447">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T21:57:42+00:00</t>
+    <t>2023-05-12T12:33:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -599,9 +599,6 @@
     <t>Patient.extension</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -621,10 +618,10 @@
 </t>
   </si>
   <si>
-    <t>Age at event</t>
-  </si>
-  <si>
-    <t>Age at the time of medical consultation</t>
+    <t>Age of death</t>
+  </si>
+  <si>
+    <t>Age at the time of Death</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -639,6 +636,12 @@
   <si>
     <t xml:space="preserve">Extension {https://fhir.cqdg.ca/StructureDefinition/AgeAtRecruitment}
 </t>
+  </si>
+  <si>
+    <t>Age at recruitment</t>
+  </si>
+  <si>
+    <t>Age at the time of medical consultation</t>
   </si>
   <si>
     <t>Patient.extension:ethnicity</t>
@@ -3659,7 +3662,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>78</v>
@@ -3677,10 +3680,10 @@
         <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3729,7 +3732,7 @@
         <v>113</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3761,23 +3764,23 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>186</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>87</v>
@@ -3789,13 +3792,13 @@
         <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3846,7 +3849,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3855,7 +3858,7 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>115</v>
@@ -3878,23 +3881,23 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>186</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G19" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>87</v>
@@ -3906,13 +3909,13 @@
         <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3963,7 +3966,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3972,7 +3975,7 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>115</v>
@@ -3995,13 +3998,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>186</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>79</v>
@@ -4023,13 +4026,13 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4080,7 +4083,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4089,7 +4092,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>115</v>
@@ -4112,10 +4115,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4227,10 +4230,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4256,10 +4259,10 @@
         <v>107</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4342,10 +4345,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4371,13 +4374,13 @@
         <v>128</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4385,7 +4388,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>79</v>
@@ -4427,7 +4430,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4459,10 +4462,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4485,13 +4488,13 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4530,17 +4533,17 @@
         <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4572,13 +4575,13 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>79</v>
@@ -4600,13 +4603,13 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4633,11 +4636,11 @@
         <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>79</v>
@@ -4655,7 +4658,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4687,10 +4690,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4716,16 +4719,16 @@
         <v>107</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N26" t="s" s="2">
         <v>110</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -4774,7 +4777,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4806,10 +4809,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4832,17 +4835,17 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -4891,7 +4894,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4906,16 +4909,16 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -4923,10 +4926,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4949,70 +4952,70 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q28" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="P28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q28" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5027,13 +5030,13 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5044,10 +5047,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5070,19 +5073,19 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5131,7 +5134,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5146,16 +5149,16 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5163,10 +5166,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5189,19 +5192,19 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -5250,7 +5253,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5265,16 +5268,16 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5282,10 +5285,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5311,16 +5314,16 @@
         <v>162</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -5345,13 +5348,13 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>79</v>
@@ -5369,7 +5372,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5384,16 +5387,16 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5401,10 +5404,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5427,19 +5430,19 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -5488,7 +5491,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5503,27 +5506,27 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5546,19 +5549,19 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5607,7 +5610,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5622,7 +5625,7 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>104</v>
@@ -5631,7 +5634,7 @@
         <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -5639,10 +5642,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5665,19 +5668,19 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5726,7 +5729,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5741,16 +5744,16 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
@@ -5758,10 +5761,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5784,17 +5787,17 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -5822,10 +5825,10 @@
         <v>144</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -5843,7 +5846,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5858,16 +5861,16 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -5875,10 +5878,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5901,19 +5904,19 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -5962,7 +5965,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5977,7 +5980,7 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>104</v>
@@ -5986,7 +5989,7 @@
         <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -5994,10 +5997,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6020,19 +6023,19 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6081,7 +6084,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6096,7 +6099,7 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>104</v>
@@ -6105,7 +6108,7 @@
         <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6113,10 +6116,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6139,19 +6142,19 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6200,7 +6203,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6212,10 +6215,10 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>104</v>
@@ -6232,10 +6235,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6347,10 +6350,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6464,14 +6467,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6493,16 +6496,16 @@
         <v>107</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>110</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -6551,7 +6554,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6583,10 +6586,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6609,17 +6612,17 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6647,10 +6650,10 @@
         <v>144</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>79</v>
@@ -6668,7 +6671,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6683,7 +6686,7 @@
         <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>104</v>
@@ -6692,7 +6695,7 @@
         <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -6700,10 +6703,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6726,17 +6729,17 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -6785,7 +6788,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6800,7 +6803,7 @@
         <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>104</v>
@@ -6809,7 +6812,7 @@
         <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -6817,10 +6820,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6843,19 +6846,19 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -6904,7 +6907,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6919,7 +6922,7 @@
         <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>104</v>
@@ -6928,7 +6931,7 @@
         <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -6936,10 +6939,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6962,17 +6965,17 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7021,7 +7024,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7036,7 +7039,7 @@
         <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>104</v>
@@ -7045,7 +7048,7 @@
         <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7053,10 +7056,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7082,14 +7085,14 @@
         <v>162</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7114,13 +7117,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7138,7 +7141,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7153,7 +7156,7 @@
         <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>104</v>
@@ -7162,7 +7165,7 @@
         <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7170,10 +7173,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7196,17 +7199,17 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7255,7 +7258,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7264,13 +7267,13 @@
         <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>104</v>
@@ -7279,7 +7282,7 @@
         <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7287,10 +7290,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7313,13 +7316,13 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7370,7 +7373,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7385,7 +7388,7 @@
         <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>104</v>
@@ -7402,10 +7405,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7428,19 +7431,19 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -7489,7 +7492,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7504,10 +7507,10 @@
         <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7521,10 +7524,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7636,10 +7639,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7753,14 +7756,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7782,16 +7785,16 @@
         <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>110</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -7840,7 +7843,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7872,10 +7875,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7898,19 +7901,19 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -7959,7 +7962,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
@@ -7974,16 +7977,16 @@
         <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -7991,10 +7994,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8017,19 +8020,19 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8078,7 +8081,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8093,16 +8096,16 @@
         <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8110,14 +8113,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8136,16 +8139,16 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8195,7 +8198,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8210,7 +8213,7 @@
         <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>104</v>
@@ -8219,7 +8222,7 @@
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8227,10 +8230,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8253,19 +8256,19 @@
         <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -8314,7 +8317,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8329,10 +8332,10 @@
         <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8346,10 +8349,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8372,19 +8375,19 @@
         <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -8433,7 +8436,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8448,7 +8451,7 @@
         <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>104</v>
@@ -8465,10 +8468,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8580,10 +8583,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8697,14 +8700,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8726,16 +8729,16 @@
         <v>107</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>110</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -8784,7 +8787,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8816,10 +8819,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8842,16 +8845,16 @@
         <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8901,7 +8904,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>86</v>
@@ -8916,7 +8919,7 @@
         <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>104</v>
@@ -8925,7 +8928,7 @@
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -8933,10 +8936,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8962,10 +8965,10 @@
         <v>162</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8992,13 +8995,13 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
@@ -9016,7 +9019,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>86</v>
@@ -9031,7 +9034,7 @@
         <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>104</v>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="403">
   <si>
     <t>Property</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-01T16:12:28+00:00</t>
+    <t>2023-10-16T18:33:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -1735,13 +1739,13 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>38</v>
@@ -1755,10 +1759,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1769,7 +1773,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1778,19 +1782,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1840,13 +1844,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1872,10 +1876,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1886,7 +1890,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -1895,16 +1899,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1955,19 +1959,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -1987,10 +1991,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2001,7 +2005,7 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
@@ -2013,13 +2017,13 @@
         <v>38</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2070,13 +2074,13 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
@@ -2085,7 +2089,7 @@
         <v>38</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>38</v>
@@ -2102,14 +2106,14 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -2128,16 +2132,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2175,19 +2179,19 @@
         <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
@@ -2199,10 +2203,10 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>38</v>
@@ -2219,10 +2223,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2233,7 +2237,7 @@
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2242,19 +2246,19 @@
         <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2304,19 +2308,19 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -2336,10 +2340,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2350,7 +2354,7 @@
         <v>36</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>38</v>
@@ -2359,19 +2363,19 @@
         <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2421,19 +2425,19 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>38</v>
@@ -2453,10 +2457,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2467,7 +2471,7 @@
         <v>36</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>38</v>
@@ -2476,19 +2480,19 @@
         <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2538,19 +2542,19 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2570,10 +2574,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2584,7 +2588,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -2593,19 +2597,19 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2655,7 +2659,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2667,7 +2671,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2687,10 +2691,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2710,19 +2714,19 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2748,13 +2752,13 @@
         <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>38</v>
@@ -2772,7 +2776,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -2784,7 +2788,7 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -2804,10 +2808,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2818,7 +2822,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -2827,19 +2831,19 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2865,13 +2869,13 @@
         <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>38</v>
@@ -2889,7 +2893,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -2901,7 +2905,7 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -2921,10 +2925,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2935,28 +2939,28 @@
         <v>36</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3006,19 +3010,19 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -3038,10 +3042,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3052,7 +3056,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
@@ -3064,16 +3068,16 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3099,13 +3103,13 @@
         <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>38</v>
@@ -3123,19 +3127,19 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
@@ -3155,21 +3159,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -3181,16 +3185,16 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3240,22 +3244,22 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>38</v>
@@ -3272,14 +3276,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3298,16 +3302,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3357,7 +3361,7 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -3372,7 +3376,7 @@
         <v>38</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>38</v>
@@ -3389,10 +3393,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3415,13 +3419,13 @@
         <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3460,17 +3464,17 @@
         <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -3482,7 +3486,7 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
@@ -3502,13 +3506,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>38</v>
@@ -3518,10 +3522,10 @@
         <v>36</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>38</v>
@@ -3530,13 +3534,13 @@
         <v>38</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3587,7 +3591,7 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
@@ -3596,10 +3600,10 @@
         <v>37</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
@@ -3619,13 +3623,13 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>38</v>
@@ -3635,10 +3639,10 @@
         <v>36</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>38</v>
@@ -3647,13 +3651,13 @@
         <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3704,7 +3708,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -3713,10 +3717,10 @@
         <v>37</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
@@ -3736,13 +3740,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>38</v>
@@ -3752,7 +3756,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -3764,13 +3768,13 @@
         <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3821,7 +3825,7 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
@@ -3830,10 +3834,10 @@
         <v>37</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
@@ -3853,10 +3857,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3867,7 +3871,7 @@
         <v>36</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -3879,13 +3883,13 @@
         <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3936,13 +3940,13 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
@@ -3951,7 +3955,7 @@
         <v>38</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>38</v>
@@ -3968,10 +3972,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3994,13 +3998,13 @@
         <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4039,19 +4043,19 @@
         <v>38</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
@@ -4063,7 +4067,7 @@
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
@@ -4083,10 +4087,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4094,10 +4098,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4109,16 +4113,16 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4126,7 +4130,7 @@
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>38</v>
@@ -4168,13 +4172,13 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
@@ -4183,7 +4187,7 @@
         <v>38</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>38</v>
@@ -4200,10 +4204,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4214,7 +4218,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -4226,13 +4230,13 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4259,11 +4263,11 @@
         <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>38</v>
@@ -4281,22 +4285,22 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>38</v>
@@ -4313,14 +4317,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4333,25 +4337,25 @@
         <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -4400,7 +4404,7 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
@@ -4412,10 +4416,10 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>38</v>
@@ -4432,10 +4436,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4455,20 +4459,20 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>38</v>
@@ -4517,7 +4521,7 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
@@ -4529,19 +4533,19 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>38</v>
@@ -4549,10 +4553,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4563,103 +4567,103 @@
         <v>36</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q26" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH26" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="J26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="P26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q26" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="R26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>38</v>
@@ -4670,10 +4674,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4693,22 +4697,22 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
@@ -4757,7 +4761,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
@@ -4769,19 +4773,19 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>38</v>
@@ -4789,10 +4793,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4812,22 +4816,22 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>38</v>
@@ -4876,7 +4880,7 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
@@ -4888,19 +4892,19 @@
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>38</v>
@@ -4908,10 +4912,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4922,7 +4926,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -4931,22 +4935,22 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
@@ -4971,13 +4975,13 @@
         <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>38</v>
@@ -4995,31 +4999,31 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>38</v>
@@ -5027,10 +5031,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5041,7 +5045,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -5050,22 +5054,22 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>38</v>
@@ -5114,42 +5118,42 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5160,31 +5164,31 @@
         <v>36</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -5233,31 +5237,31 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>38</v>
@@ -5265,10 +5269,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5288,22 +5292,22 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>38</v>
@@ -5352,7 +5356,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
@@ -5364,19 +5368,19 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>38</v>
@@ -5384,10 +5388,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5398,7 +5402,7 @@
         <v>36</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -5410,17 +5414,17 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>38</v>
@@ -5445,13 +5449,13 @@
         <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>38</v>
@@ -5469,31 +5473,31 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>38</v>
@@ -5501,10 +5505,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5515,7 +5519,7 @@
         <v>36</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>38</v>
@@ -5527,19 +5531,19 @@
         <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -5588,31 +5592,31 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>38</v>
@@ -5620,10 +5624,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5646,19 +5650,19 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -5707,7 +5711,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
@@ -5719,19 +5723,19 @@
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>38</v>
@@ -5739,10 +5743,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5765,19 +5769,19 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
@@ -5826,7 +5830,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
@@ -5838,13 +5842,13 @@
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>38</v>
@@ -5858,10 +5862,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5872,7 +5876,7 @@
         <v>36</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
@@ -5884,13 +5888,13 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5941,13 +5945,13 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
@@ -5956,7 +5960,7 @@
         <v>38</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>38</v>
@@ -5973,14 +5977,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5999,16 +6003,16 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6058,7 +6062,7 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
@@ -6070,10 +6074,10 @@
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>38</v>
@@ -6090,14 +6094,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6110,25 +6114,25 @@
         <v>38</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>38</v>
@@ -6177,7 +6181,7 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
@@ -6189,10 +6193,10 @@
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>38</v>
@@ -6209,10 +6213,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6235,17 +6239,17 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>38</v>
@@ -6270,13 +6274,13 @@
         <v>38</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>38</v>
@@ -6294,7 +6298,7 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
@@ -6306,19 +6310,19 @@
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>38</v>
@@ -6326,10 +6330,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6340,7 +6344,7 @@
         <v>36</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>38</v>
@@ -6352,17 +6356,17 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6411,31 +6415,31 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>38</v>
@@ -6443,10 +6447,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6469,19 +6473,19 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>38</v>
@@ -6530,7 +6534,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -6542,19 +6546,19 @@
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>38</v>
@@ -6562,10 +6566,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6576,7 +6580,7 @@
         <v>36</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
@@ -6588,17 +6592,17 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6647,31 +6651,31 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>38</v>
@@ -6679,10 +6683,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6693,7 +6697,7 @@
         <v>36</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -6705,17 +6709,17 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -6740,13 +6744,13 @@
         <v>38</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>38</v>
@@ -6764,31 +6768,31 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>38</v>
@@ -6796,10 +6800,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6810,7 +6814,7 @@
         <v>36</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -6822,17 +6826,17 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>38</v>
@@ -6881,31 +6885,31 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>38</v>
@@ -6913,10 +6917,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6927,7 +6931,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -6939,13 +6943,13 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6996,25 +7000,25 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>38</v>
@@ -7028,10 +7032,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7054,19 +7058,19 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>38</v>
@@ -7115,7 +7119,7 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
@@ -7127,13 +7131,13 @@
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>38</v>
@@ -7147,10 +7151,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7161,7 +7165,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -7173,13 +7177,13 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7230,13 +7234,13 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
@@ -7245,7 +7249,7 @@
         <v>38</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>38</v>
@@ -7262,14 +7266,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7288,16 +7292,16 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7347,7 +7351,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
@@ -7359,10 +7363,10 @@
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>38</v>
@@ -7379,14 +7383,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7399,25 +7403,25 @@
         <v>38</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>38</v>
@@ -7466,7 +7470,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
@@ -7478,10 +7482,10 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>38</v>
@@ -7498,10 +7502,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7509,10 +7513,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>38</v>
@@ -7524,19 +7528,19 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>38</v>
@@ -7561,13 +7565,13 @@
         <v>38</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>38</v>
@@ -7585,31 +7589,31 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>38</v>
@@ -7617,10 +7621,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7631,7 +7635,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -7643,19 +7647,19 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -7704,31 +7708,31 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>38</v>
@@ -7736,14 +7740,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7762,16 +7766,16 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7821,7 +7825,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
@@ -7833,19 +7837,19 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>38</v>
@@ -7853,10 +7857,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7867,7 +7871,7 @@
         <v>36</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>38</v>
@@ -7876,22 +7880,22 @@
         <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -7940,25 +7944,25 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
@@ -7972,10 +7976,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7992,25 +7996,25 @@
         <v>38</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>38</v>
@@ -8059,7 +8063,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
@@ -8071,13 +8075,13 @@
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>38</v>
@@ -8091,10 +8095,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8105,7 +8109,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8117,13 +8121,13 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8174,13 +8178,13 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>38</v>
@@ -8189,7 +8193,7 @@
         <v>38</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>38</v>
@@ -8206,14 +8210,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8232,16 +8236,16 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8291,7 +8295,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
@@ -8303,10 +8307,10 @@
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>38</v>
@@ -8323,14 +8327,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8343,25 +8347,25 @@
         <v>38</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>38</v>
@@ -8410,7 +8414,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -8422,10 +8426,10 @@
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>38</v>
@@ -8442,10 +8446,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8453,10 +8457,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>38</v>
@@ -8465,19 +8469,19 @@
         <v>38</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8527,31 +8531,31 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>38</v>
@@ -8559,10 +8563,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8570,10 +8574,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>38</v>
@@ -8582,16 +8586,16 @@
         <v>38</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8618,13 +8622,13 @@
         <v>38</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>38</v>
@@ -8642,25 +8646,25 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>38</v>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="444">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T18:33:36+00:00</t>
+    <t>2023-11-09T20:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -121,6 +121,129 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: CDA (R2)</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: LOINC code for the element</t>
   </si>
   <si>
     <t xml:space="preserve">SubjectOfCare Client Resident
@@ -1592,7 +1715,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO60"/>
+  <dimension ref="A1:AO61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1605,10 +1728,11 @@
     <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.78125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="65.9453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1619,7065 +1743,7190 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="51.921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="156.828125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="39.37890625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="8.703125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>35</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AM1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO1" t="s" s="2">
-        <v>38</v>
+      <c r="K1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AO1" t="s" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>51</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC16" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>61</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>62</v>
+        <v>206</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>38</v>
+        <v>224</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O25" t="s" s="2">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q26" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>64</v>
+        <v>237</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>38</v>
+        <v>239</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q27" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Q27" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="R27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>215</v>
+        <v>105</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>38</v>
+        <v>248</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>237</v>
+        <v>163</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>38</v>
+        <v>223</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>38</v>
+        <v>273</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>64</v>
+        <v>284</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>38</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>261</v>
+        <v>105</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>179</v>
+        <v>296</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>38</v>
+        <v>308</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>38</v>
+        <v>309</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>64</v>
+        <v>311</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>294</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>38</v>
+        <v>328</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>61</v>
+        <v>331</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="P37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>63</v>
+        <v>329</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>38</v>
+        <v>335</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>64</v>
+        <v>336</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>299</v>
+        <v>107</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>300</v>
+        <v>109</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>302</v>
+        <v>115</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>38</v>
+        <v>340</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>306</v>
+        <v>229</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>309</v>
+        <v>186</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>38</v>
+        <v>348</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>38</v>
+        <v>349</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>214</v>
+        <v>350</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>222</v>
+        <v>355</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>324</v>
+        <v>263</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>122</v>
+        <v>296</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>227</v>
+        <v>363</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>233</v>
+        <v>301</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>331</v>
+        <v>163</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>332</v>
+        <v>268</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>38</v>
+        <v>223</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>38</v>
+        <v>273</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>336</v>
+        <v>274</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>38</v>
+        <v>376</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>38</v>
+        <v>378</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>289</v>
+        <v>380</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>349</v>
+        <v>105</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>61</v>
+        <v>385</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="P48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>63</v>
+        <v>384</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>64</v>
+        <v>389</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>38</v>
+        <v>390</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>299</v>
+        <v>107</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>300</v>
+        <v>109</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>302</v>
+        <v>115</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>38</v>
+        <v>340</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>356</v>
+        <v>111</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>357</v>
+        <v>229</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>358</v>
+        <v>186</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="P52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>371</v>
+        <v>241</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="P53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>375</v>
+        <v>407</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>64</v>
+        <v>408</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>38</v>
+        <v>411</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>331</v>
+        <v>412</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>336</v>
+        <v>416</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>382</v>
+        <v>105</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>38</v>
+        <v>417</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>289</v>
+        <v>372</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>64</v>
+        <v>423</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>61</v>
+        <v>425</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>63</v>
+        <v>424</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>64</v>
+        <v>429</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>299</v>
+        <v>107</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>300</v>
+        <v>109</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>302</v>
+        <v>115</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>38</v>
+        <v>340</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>393</v>
+        <v>108</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>394</v>
+        <v>341</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P59" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>122</v>
+        <v>434</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>402</v>
+        <v>236</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>38</v>
+        <v>438</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO60">
+  <autoFilter ref="A1:AO61">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8687,7 +8936,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI59">
+  <conditionalFormatting sqref="A2:AI60">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T20:06:51+00:00</t>
+    <t>2023-11-15T18:25:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -424,7 +424,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -444,7 +444,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T18:25:48+00:00</t>
+    <t>2023-11-15T19:01:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T19:01:06+00:00</t>
+    <t>2023-12-04T14:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T14:59:45+00:00</t>
+    <t>2023-12-07T15:05:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T15:05:41+00:00</t>
+    <t>2024-01-17T15:25:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T15:25:58+00:00</t>
+    <t>2024-01-17T16:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T16:00:29+00:00</t>
+    <t>2024-01-17T16:27:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T16:27:10+00:00</t>
+    <t>2024-01-17T16:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="445">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T16:37:11+00:00</t>
+    <t>2024-10-02T15:04:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Ferlab.bio (http://example.org/example-publisher)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -256,9 +262,6 @@
     <t>*</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
   </si>
@@ -424,7 +427,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -444,7 +447,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -1552,7 +1555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1652,21 +1655,21 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -1706,6 +1709,14 @@
       </c>
       <c r="B19" t="s" s="2">
         <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1768,7161 +1779,7161 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q27" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH27" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J27" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="P27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q27" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P52" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P53" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T15:04:17+00:00</t>
+    <t>2024-12-18T18:27:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T18:27:33+00:00</t>
+    <t>2025-05-13T18:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1735,17 +1735,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.78125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.83984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.2421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="65.9453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="56.5390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1754,27 +1754,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="156.828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="39.37890625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="134.453125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="34.98828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.76171875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-13T18:56:15+00:00</t>
+    <t>2025-05-20T15:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T15:08:54+00:00</t>
+    <t>2025-05-21T20:08:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T20:08:08+00:00</t>
+    <t>2025-05-27T17:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T17:50:40+00:00</t>
+    <t>2025-05-27T17:52:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T17:52:17+00:00</t>
+    <t>2025-05-29T13:27:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T13:27:52+00:00</t>
+    <t>2025-06-12T13:19:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T13:19:08+00:00</t>
+    <t>2025-06-12T13:42:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T13:42:51+00:00</t>
+    <t>2025-08-13T14:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T14:50:19+00:00</t>
+    <t>2025-08-20T13:12:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$66</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="456">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T13:12:16+00:00</t>
+    <t>2025-08-29T12:39:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -723,6 +723,40 @@
   </si>
   <si>
     <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Patient.extension:gender</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir.cqdg.ca/StructureDefinition/QCGender}
+</t>
+  </si>
+  <si>
+    <t>Ferlab.bio Extension/gender</t>
+  </si>
+  <si>
+    <t>gender for cqdg project</t>
+  </si>
+  <si>
+    <t>Patient.extension:gender.id</t>
+  </si>
+  <si>
+    <t>Patient.extension:gender.extension</t>
+  </si>
+  <si>
+    <t>Patient.extension:gender.url</t>
+  </si>
+  <si>
+    <t>https://fhir.cqdg.ca/StructureDefinition/QCGender</t>
+  </si>
+  <si>
+    <t>Patient.extension:gender.value[x]</t>
+  </si>
+  <si>
+    <t>https://fhir.cqdg.ca/ValueSet/qc-gender-vs</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -1726,7 +1760,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO61"/>
+  <dimension ref="A1:AO66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3664,7 +3698,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>80</v>
@@ -4580,43 +4614,41 @@
         <v>227</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="D25" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>109</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>20</v>
       </c>
@@ -4664,7 +4696,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4673,13 +4705,13 @@
         <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>117</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>20</v>
@@ -4699,7 +4731,7 @@
         <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4710,7 +4742,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
@@ -4719,21 +4751,19 @@
         <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>233</v>
+        <v>102</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>234</v>
+        <v>103</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>235</v>
+        <v>104</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>20</v>
       </c>
@@ -4781,31 +4811,31 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>232</v>
+        <v>105</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>237</v>
+        <v>106</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>239</v>
+        <v>20</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>20</v>
@@ -4813,10 +4843,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4827,38 +4857,32 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q27" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
         <v>20</v>
       </c>
@@ -4890,40 +4914,40 @@
         <v>20</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>241</v>
+        <v>116</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>248</v>
+        <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>249</v>
+        <v>20</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>20</v>
@@ -4934,10 +4958,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4945,10 +4969,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -4957,29 +4981,27 @@
         <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>20</v>
@@ -5021,31 +5043,31 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>256</v>
+        <v>187</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>257</v>
+        <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>20</v>
@@ -5053,10 +5075,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5067,7 +5089,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -5076,23 +5098,19 @@
         <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>20</v>
       </c>
@@ -5116,13 +5134,11 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5140,13 +5156,13 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
@@ -5155,16 +5171,16 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>265</v>
+        <v>187</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>267</v>
+        <v>20</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>20</v>
@@ -5172,45 +5188,45 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>271</v>
+        <v>112</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5235,13 +5251,13 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>273</v>
+        <v>20</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>274</v>
+        <v>20</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -5259,31 +5275,31 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>275</v>
+        <v>187</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>276</v>
+        <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>277</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
@@ -5291,10 +5307,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5305,7 +5321,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -5317,19 +5333,17 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5378,13 +5392,13 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
@@ -5393,27 +5407,27 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>287</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5436,24 +5450,26 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="R32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5497,7 +5513,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5512,16 +5528,16 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>295</v>
+        <v>20</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
@@ -5529,10 +5545,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5555,19 +5571,19 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5616,7 +5632,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5631,16 +5647,16 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -5648,10 +5664,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5662,7 +5678,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -5671,20 +5687,22 @@
         <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5709,13 +5727,13 @@
         <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>310</v>
+        <v>20</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -5733,13 +5751,13 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
@@ -5748,16 +5766,16 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -5765,10 +5783,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5788,22 +5806,22 @@
         <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>315</v>
+        <v>164</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -5828,13 +5846,13 @@
         <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>20</v>
+        <v>224</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>20</v>
+        <v>284</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>20</v>
@@ -5852,7 +5870,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5867,16 +5885,16 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>106</v>
+        <v>287</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -5884,10 +5902,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5898,7 +5916,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -5907,22 +5925,22 @@
         <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -5971,13 +5989,13 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
@@ -5986,27 +6004,27 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>106</v>
+        <v>296</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>20</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6017,31 +6035,31 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -6090,22 +6108,22 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>336</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>106</v>
@@ -6114,7 +6132,7 @@
         <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>20</v>
+        <v>306</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -6122,10 +6140,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6136,7 +6154,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -6145,19 +6163,23 @@
         <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
       </c>
@@ -6205,31 +6227,31 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>105</v>
+        <v>307</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>106</v>
+        <v>313</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>20</v>
+        <v>314</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>20</v>
+        <v>315</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6237,21 +6259,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>20</v>
@@ -6263,18 +6285,18 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>109</v>
+        <v>221</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>110</v>
+        <v>317</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6298,13 +6320,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>20</v>
+        <v>321</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6322,31 +6344,31 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>116</v>
+        <v>316</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>106</v>
+        <v>322</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>20</v>
+        <v>323</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -6354,45 +6376,45 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>341</v>
+        <v>20</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>109</v>
+        <v>326</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>112</v>
+        <v>329</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6441,31 +6463,31 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>187</v>
+        <v>331</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>20</v>
+        <v>332</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6473,10 +6495,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6499,17 +6521,19 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>221</v>
+        <v>334</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O41" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6534,13 +6558,13 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>349</v>
+        <v>20</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -6558,7 +6582,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6573,7 +6597,7 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>106</v>
@@ -6582,7 +6606,7 @@
         <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -6590,10 +6614,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6604,7 +6628,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -6616,17 +6640,19 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>251</v>
+        <v>342</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O42" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6675,22 +6701,22 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>347</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>256</v>
+        <v>348</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>106</v>
@@ -6699,7 +6725,7 @@
         <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>357</v>
+        <v>20</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -6707,10 +6733,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6721,7 +6747,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -6733,20 +6759,16 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>260</v>
+        <v>102</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>359</v>
+        <v>103</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>20</v>
       </c>
@@ -6794,31 +6816,31 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>358</v>
+        <v>105</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>265</v>
+        <v>106</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>362</v>
+        <v>20</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -6826,21 +6848,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -6852,18 +6874,18 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>297</v>
+        <v>109</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>364</v>
+        <v>110</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
       </c>
@@ -6911,31 +6933,31 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>363</v>
+        <v>116</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>302</v>
+        <v>106</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>367</v>
+        <v>20</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -6943,43 +6965,45 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>269</v>
+        <v>353</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>370</v>
+        <v>241</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7004,13 +7028,13 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>273</v>
+        <v>20</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>274</v>
+        <v>20</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -7028,31 +7052,31 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>275</v>
+        <v>187</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>371</v>
+        <v>20</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7060,10 +7084,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7074,7 +7098,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -7086,17 +7110,17 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>373</v>
+        <v>221</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7121,13 +7145,13 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>20</v>
+        <v>361</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -7145,22 +7169,22 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>377</v>
+        <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>106</v>
@@ -7169,7 +7193,7 @@
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7177,10 +7201,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7203,16 +7227,18 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>381</v>
+        <v>262</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
       </c>
@@ -7260,7 +7286,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7275,7 +7301,7 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>384</v>
+        <v>267</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>106</v>
@@ -7284,7 +7310,7 @@
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>20</v>
+        <v>368</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -7292,10 +7318,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7318,19 +7344,19 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>331</v>
+        <v>271</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>389</v>
+        <v>275</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7379,7 +7405,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7394,16 +7420,16 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>390</v>
+        <v>276</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>391</v>
+        <v>106</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
@@ -7411,10 +7437,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7437,16 +7463,18 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>103</v>
+        <v>375</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>104</v>
+        <v>376</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
       </c>
@@ -7494,7 +7522,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>105</v>
+        <v>374</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7506,19 +7534,19 @@
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AL49" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AM49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>20</v>
+        <v>378</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
@@ -7526,21 +7554,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
@@ -7552,18 +7580,18 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
       </c>
@@ -7587,13 +7615,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>20</v>
+        <v>224</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>20</v>
+        <v>284</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7611,31 +7639,31 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>116</v>
+        <v>379</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AL50" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AM50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>20</v>
+        <v>382</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -7643,45 +7671,43 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>341</v>
+        <v>20</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>109</v>
+        <v>384</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>230</v>
+        <v>387</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7730,31 +7756,31 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>187</v>
+        <v>389</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>20</v>
+        <v>390</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -7762,10 +7788,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7773,7 +7799,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>88</v>
@@ -7788,20 +7814,16 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>221</v>
+        <v>392</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>20</v>
       </c>
@@ -7825,13 +7847,13 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -7849,10 +7871,10 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>88</v>
@@ -7864,16 +7886,16 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>401</v>
+        <v>106</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -7881,10 +7903,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7895,7 +7917,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -7907,19 +7929,19 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>242</v>
+        <v>342</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -7968,13 +7990,13 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>20</v>
@@ -7983,16 +8005,16 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>410</v>
+        <v>20</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
@@ -8000,21 +8022,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>412</v>
+        <v>20</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
@@ -8026,17 +8048,15 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>413</v>
+        <v>102</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>414</v>
+        <v>103</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8085,31 +8105,31 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>411</v>
+        <v>105</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>417</v>
+        <v>106</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>418</v>
+        <v>20</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8117,21 +8137,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>20</v>
@@ -8140,23 +8160,21 @@
         <v>20</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>373</v>
+        <v>109</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>420</v>
+        <v>110</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>421</v>
+        <v>111</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>20</v>
       </c>
@@ -8204,25 +8222,25 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>419</v>
+        <v>116</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>378</v>
+        <v>106</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>424</v>
+        <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
@@ -8236,14 +8254,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8262,19 +8280,19 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>331</v>
+        <v>109</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>426</v>
+        <v>353</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>427</v>
+        <v>354</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>428</v>
+        <v>112</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>429</v>
+        <v>241</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -8323,7 +8341,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>425</v>
+        <v>355</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8335,13 +8353,13 @@
         <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>430</v>
+        <v>187</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>20</v>
@@ -8355,10 +8373,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8366,7 +8384,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>88</v>
@@ -8381,16 +8399,20 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>102</v>
+        <v>221</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>103</v>
+        <v>407</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
       </c>
@@ -8414,13 +8436,13 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -8438,10 +8460,10 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>105</v>
+        <v>406</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>88</v>
@@ -8450,19 +8472,19 @@
         <v>20</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>106</v>
+        <v>411</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>20</v>
+        <v>412</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>20</v>
@@ -8470,21 +8492,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
@@ -8496,18 +8518,20 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>109</v>
+        <v>253</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>110</v>
+        <v>415</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>111</v>
+        <v>416</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
       </c>
@@ -8555,31 +8579,31 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>116</v>
+        <v>414</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>106</v>
+        <v>419</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>20</v>
+        <v>420</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>20</v>
+        <v>421</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>20</v>
@@ -8587,14 +8611,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>341</v>
+        <v>423</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8607,26 +8631,24 @@
         <v>20</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>109</v>
+        <v>424</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>342</v>
+        <v>425</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>343</v>
+        <v>426</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>20</v>
       </c>
@@ -8674,7 +8696,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>344</v>
+        <v>422</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8686,19 +8708,19 @@
         <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>187</v>
+        <v>428</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>20</v>
+        <v>429</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>20</v>
@@ -8706,10 +8728,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8717,7 +8739,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>88</v>
@@ -8732,18 +8754,20 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>435</v>
+        <v>384</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
       </c>
@@ -8791,10 +8815,10 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>88</v>
@@ -8806,16 +8830,16 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>237</v>
+        <v>389</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>106</v>
+        <v>435</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>439</v>
+        <v>20</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>20</v>
@@ -8823,10 +8847,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8834,31 +8858,35 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>164</v>
+        <v>342</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
       </c>
@@ -8882,13 +8910,13 @@
         <v>20</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>442</v>
+        <v>20</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>443</v>
+        <v>20</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>20</v>
@@ -8906,13 +8934,13 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>20</v>
@@ -8921,7 +8949,7 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>106</v>
@@ -8936,8 +8964,591 @@
         <v>20</v>
       </c>
     </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AO61">
+  <autoFilter ref="A1:AO66">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8947,7 +9558,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$96</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3572" uniqueCount="523">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T12:39:24+00:00</t>
+    <t>2025-09-03T17:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -606,6 +606,9 @@
     <t>Patient.extension</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -757,6 +760,210 @@
   </si>
   <si>
     <t>https://fhir.cqdg.ca/ValueSet/qc-gender-vs</t>
+  </si>
+  <si>
+    <t>Patient.extension:genderCollectionMethod</t>
+  </si>
+  <si>
+    <t>genderCollectionMethod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir.cqdg.ca/StructureDefinition/GenderCollectionMethod}
+</t>
+  </si>
+  <si>
+    <t>Ferlab.bio Extension/gender-collection-method</t>
+  </si>
+  <si>
+    <t>gender collection method</t>
+  </si>
+  <si>
+    <t>Patient.extension:genderCollectionMethod.id</t>
+  </si>
+  <si>
+    <t>Patient.extension:genderCollectionMethod.extension</t>
+  </si>
+  <si>
+    <t>Patient.extension:genderCollectionMethod.url</t>
+  </si>
+  <si>
+    <t>https://fhir.cqdg.ca/StructureDefinition/GenderCollectionMethod</t>
+  </si>
+  <si>
+    <t>Patient.extension:genderCollectionMethod.value[x]</t>
+  </si>
+  <si>
+    <t>https://fhir.cqdg.ca/ValueSet/gender-collection-method-vs</t>
+  </si>
+  <si>
+    <t>Patient.extension:sexAtBirth</t>
+  </si>
+  <si>
+    <t>sexAtBirth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir.cqdg.ca/StructureDefinition/SexAtBirth}
+</t>
+  </si>
+  <si>
+    <t>Ferlab.bio Extension/sex-at-birth</t>
+  </si>
+  <si>
+    <t>Sex at birth for cqdg project</t>
+  </si>
+  <si>
+    <t>Patient.extension:sexAtBirth.id</t>
+  </si>
+  <si>
+    <t>Patient.extension:sexAtBirth.extension</t>
+  </si>
+  <si>
+    <t>Patient.extension:sexAtBirth.url</t>
+  </si>
+  <si>
+    <t>https://fhir.cqdg.ca/StructureDefinition/SexAtBirth</t>
+  </si>
+  <si>
+    <t>Patient.extension:sexAtBirth.value[x]</t>
+  </si>
+  <si>
+    <t>https://fhir.cqdg.ca/ValueSet/sex-at-birth-vs</t>
+  </si>
+  <si>
+    <t>Patient.extension:sexAtBirthCollectionMethod</t>
+  </si>
+  <si>
+    <t>sexAtBirthCollectionMethod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir.cqdg.ca/StructureDefinition/SexAtBirthCollectionMethod}
+</t>
+  </si>
+  <si>
+    <t>Ferlab.bio Extension/sex-at-birth-collection-method</t>
+  </si>
+  <si>
+    <t>Sex at birth collection method for cqdg project</t>
+  </si>
+  <si>
+    <t>Patient.extension:sexAtBirthCollectionMethod.id</t>
+  </si>
+  <si>
+    <t>Patient.extension:sexAtBirthCollectionMethod.extension</t>
+  </si>
+  <si>
+    <t>Patient.extension:sexAtBirthCollectionMethod.url</t>
+  </si>
+  <si>
+    <t>https://fhir.cqdg.ca/StructureDefinition/SexAtBirthCollectionMethod</t>
+  </si>
+  <si>
+    <t>Patient.extension:sexAtBirthCollectionMethod.value[x]</t>
+  </si>
+  <si>
+    <t>https://fhir.cqdg.ca/ValueSet/sex-at-birth-collection-method-vs</t>
+  </si>
+  <si>
+    <t>Patient.extension:race</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir.cqdg.ca/StructureDefinition/Race}
+</t>
+  </si>
+  <si>
+    <t>Ferlab.bio Extension/race</t>
+  </si>
+  <si>
+    <t>race for cqdg project</t>
+  </si>
+  <si>
+    <t>Patient.extension:race.id</t>
+  </si>
+  <si>
+    <t>Patient.extension:race.extension</t>
+  </si>
+  <si>
+    <t>Patient.extension:race.url</t>
+  </si>
+  <si>
+    <t>https://fhir.cqdg.ca/StructureDefinition/Race</t>
+  </si>
+  <si>
+    <t>Patient.extension:race.value[x]</t>
+  </si>
+  <si>
+    <t>https://fhir.cqdg.ca/ValueSet/race-vs</t>
+  </si>
+  <si>
+    <t>Patient.extension:raceCollectionMethod</t>
+  </si>
+  <si>
+    <t>raceCollectionMethod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir.cqdg.ca/StructureDefinition/RaceCollectionMethod}
+</t>
+  </si>
+  <si>
+    <t>Ferlab.bio Extension/race-collection-method</t>
+  </si>
+  <si>
+    <t>race collection method for cqdg project</t>
+  </si>
+  <si>
+    <t>Patient.extension:raceCollectionMethod.id</t>
+  </si>
+  <si>
+    <t>Patient.extension:raceCollectionMethod.extension</t>
+  </si>
+  <si>
+    <t>Patient.extension:raceCollectionMethod.url</t>
+  </si>
+  <si>
+    <t>https://fhir.cqdg.ca/StructureDefinition/RaceCollectionMethod</t>
+  </si>
+  <si>
+    <t>Patient.extension:raceCollectionMethod.value[x]</t>
+  </si>
+  <si>
+    <t>https://fhir.cqdg.ca/ValueSet/race-collection-method-vs</t>
+  </si>
+  <si>
+    <t>Patient.extension:vitalStatus</t>
+  </si>
+  <si>
+    <t>vitalStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir.cqdg.ca/StructureDefinition/VitalStatus}
+</t>
+  </si>
+  <si>
+    <t>Ferlab.bio Extension/vital-status</t>
+  </si>
+  <si>
+    <t>vital status for cqdg project</t>
+  </si>
+  <si>
+    <t>Patient.extension:vitalStatus.id</t>
+  </si>
+  <si>
+    <t>Patient.extension:vitalStatus.extension</t>
+  </si>
+  <si>
+    <t>Patient.extension:vitalStatus.url</t>
+  </si>
+  <si>
+    <t>https://fhir.cqdg.ca/StructureDefinition/VitalStatus</t>
+  </si>
+  <si>
+    <t>Patient.extension:vitalStatus.value[x]</t>
+  </si>
+  <si>
+    <t>https://fhir.cqdg.ca/ValueSet/vital-status-vs</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -1760,7 +1967,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO66"/>
+  <dimension ref="A1:AO96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1769,9 +1976,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.83984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.19921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.2421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.74609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1779,7 +1986,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="56.5390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="64.10546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1794,7 +2001,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.109375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3698,7 +3905,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>80</v>
@@ -3716,10 +3923,10 @@
         <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3768,7 +3975,7 @@
         <v>115</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3800,13 +4007,13 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>188</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>20</v>
@@ -3828,13 +4035,13 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3885,7 +4092,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3894,7 +4101,7 @@
         <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>117</v>
@@ -3917,13 +4124,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>188</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>20</v>
@@ -3945,13 +4152,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4002,7 +4209,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4011,7 +4218,7 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>117</v>
@@ -4034,13 +4241,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>188</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>20</v>
@@ -4062,13 +4269,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4119,7 +4326,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4128,7 +4335,7 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>117</v>
@@ -4151,10 +4358,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4266,10 +4473,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4295,10 +4502,10 @@
         <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4381,10 +4588,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4410,13 +4617,13 @@
         <v>130</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4424,7 +4631,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>20</v>
@@ -4466,7 +4673,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>88</v>
@@ -4498,10 +4705,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4524,13 +4731,13 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4557,11 +4764,11 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4579,7 +4786,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4611,13 +4818,13 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>188</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>20</v>
@@ -4639,13 +4846,13 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4696,7 +4903,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4705,7 +4912,7 @@
         <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>117</v>
@@ -4728,10 +4935,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4843,10 +5050,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4872,10 +5079,10 @@
         <v>109</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4958,10 +5165,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4987,13 +5194,13 @@
         <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5001,7 +5208,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>20</v>
@@ -5043,7 +5250,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>88</v>
@@ -5075,10 +5282,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5101,13 +5308,13 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5134,11 +5341,11 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5156,7 +5363,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5188,46 +5395,44 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="D30" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>109</v>
+        <v>241</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>20</v>
       </c>
@@ -5275,7 +5480,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>242</v>
+        <v>192</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5284,13 +5489,13 @@
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>117</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>20</v>
@@ -5307,10 +5512,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5321,7 +5526,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -5330,21 +5535,19 @@
         <v>20</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>244</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>245</v>
+        <v>103</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>246</v>
+        <v>104</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>20</v>
       </c>
@@ -5392,31 +5595,31 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>243</v>
+        <v>105</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>248</v>
+        <v>106</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>249</v>
+        <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
@@ -5424,10 +5627,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5438,38 +5641,32 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>253</v>
+        <v>109</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>254</v>
+        <v>190</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q32" t="s" s="2">
-        <v>258</v>
-      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5501,40 +5698,40 @@
         <v>20</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>252</v>
+        <v>116</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>259</v>
+        <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>20</v>
@@ -5545,10 +5742,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5556,10 +5753,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -5568,29 +5765,27 @@
         <v>20</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>20</v>
@@ -5632,31 +5827,31 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>267</v>
+        <v>187</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>268</v>
+        <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>269</v>
+        <v>20</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -5664,10 +5859,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5678,7 +5873,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -5687,23 +5882,19 @@
         <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>20</v>
       </c>
@@ -5727,13 +5918,11 @@
         <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>20</v>
+        <v>249</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -5751,13 +5940,13 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
@@ -5766,16 +5955,16 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>276</v>
+        <v>187</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>277</v>
+        <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>278</v>
+        <v>20</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -5783,18 +5972,20 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>88</v>
@@ -5806,23 +5997,19 @@
         <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
@@ -5846,13 +6033,13 @@
         <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>284</v>
+        <v>20</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>285</v>
+        <v>20</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>20</v>
@@ -5870,31 +6057,31 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>279</v>
+        <v>192</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>286</v>
+        <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>287</v>
+        <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -5902,10 +6089,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5925,23 +6112,19 @@
         <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>290</v>
+        <v>102</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>291</v>
+        <v>103</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
       </c>
@@ -5989,7 +6172,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>289</v>
+        <v>105</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6001,30 +6184,30 @@
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>295</v>
+        <v>106</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>296</v>
+        <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>297</v>
+        <v>20</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>298</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>299</v>
+        <v>212</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6035,32 +6218,28 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>300</v>
+        <v>109</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>301</v>
+        <v>190</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>20</v>
       </c>
@@ -6096,43 +6275,43 @@
         <v>20</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>299</v>
+        <v>116</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>306</v>
+        <v>20</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -6140,10 +6319,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>307</v>
+        <v>214</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6151,10 +6330,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -6163,29 +6342,27 @@
         <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>308</v>
+        <v>130</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>309</v>
+        <v>215</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>310</v>
+        <v>216</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>20</v>
@@ -6227,31 +6404,31 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>313</v>
+        <v>187</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>314</v>
+        <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>315</v>
+        <v>20</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6259,10 +6436,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>316</v>
+        <v>221</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6285,18 +6462,16 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>317</v>
+        <v>223</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>319</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6320,13 +6495,11 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>321</v>
+        <v>260</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6344,7 +6517,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>316</v>
+        <v>227</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6359,16 +6532,16 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>322</v>
+        <v>187</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>323</v>
+        <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -6376,18 +6549,20 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>325</v>
+        <v>261</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>88</v>
@@ -6402,20 +6577,16 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>326</v>
+        <v>263</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>327</v>
+        <v>264</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>20</v>
       </c>
@@ -6463,31 +6634,31 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>325</v>
+        <v>192</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>331</v>
+        <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>332</v>
+        <v>20</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6495,10 +6666,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>333</v>
+        <v>210</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6509,7 +6680,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -6521,20 +6692,16 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>334</v>
+        <v>102</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>335</v>
+        <v>103</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>20</v>
       </c>
@@ -6582,31 +6749,31 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>333</v>
+        <v>105</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>339</v>
+        <v>106</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>340</v>
+        <v>20</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -6614,10 +6781,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>267</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>212</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6628,7 +6795,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -6640,20 +6807,16 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>342</v>
+        <v>109</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>343</v>
+        <v>190</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>20</v>
       </c>
@@ -6689,19 +6852,19 @@
         <v>20</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>341</v>
+        <v>116</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6713,13 +6876,13 @@
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>347</v>
+        <v>117</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>348</v>
+        <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>20</v>
@@ -6733,10 +6896,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>349</v>
+        <v>268</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>349</v>
+        <v>214</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6744,7 +6907,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>88</v>
@@ -6759,22 +6922,24 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>20</v>
@@ -6816,10 +6981,10 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>88</v>
@@ -6831,7 +6996,7 @@
         <v>20</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>20</v>
@@ -6848,21 +7013,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>350</v>
+        <v>221</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -6874,17 +7039,15 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -6909,13 +7072,11 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>20</v>
+        <v>271</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -6933,22 +7094,22 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>20</v>
@@ -6965,46 +7126,44 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>272</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="D45" t="s" s="2">
-        <v>352</v>
+        <v>20</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>109</v>
+        <v>274</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>353</v>
+        <v>275</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>20</v>
       </c>
@@ -7052,7 +7211,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>355</v>
+        <v>192</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7061,13 +7220,13 @@
         <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>117</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>20</v>
@@ -7084,10 +7243,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>277</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>356</v>
+        <v>210</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7098,7 +7257,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -7110,18 +7269,16 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>357</v>
+        <v>103</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>358</v>
+        <v>104</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>359</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>20</v>
       </c>
@@ -7145,13 +7302,13 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>361</v>
+        <v>20</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -7169,31 +7326,31 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>356</v>
+        <v>105</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>362</v>
+        <v>106</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>363</v>
+        <v>20</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7201,10 +7358,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>364</v>
+        <v>278</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>364</v>
+        <v>212</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7215,7 +7372,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -7227,18 +7384,16 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>365</v>
+        <v>190</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>366</v>
+        <v>191</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>367</v>
-      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>20</v>
       </c>
@@ -7274,43 +7429,43 @@
         <v>20</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>364</v>
+        <v>116</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>267</v>
+        <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>368</v>
+        <v>20</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -7318,10 +7473,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>279</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>369</v>
+        <v>214</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7329,10 +7484,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -7344,26 +7499,24 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>271</v>
+        <v>130</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>370</v>
+        <v>215</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>371</v>
+        <v>216</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>20</v>
@@ -7405,31 +7558,31 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>369</v>
+        <v>219</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>276</v>
+        <v>187</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
@@ -7437,10 +7590,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>281</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>374</v>
+        <v>221</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7463,18 +7616,16 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>308</v>
+        <v>222</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>375</v>
+        <v>223</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>376</v>
+        <v>224</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>377</v>
-      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>20</v>
       </c>
@@ -7498,13 +7649,11 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>20</v>
+        <v>282</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7522,7 +7671,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>374</v>
+        <v>227</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7537,16 +7686,16 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>313</v>
+        <v>187</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>378</v>
+        <v>20</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
@@ -7554,18 +7703,20 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>283</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="D50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>88</v>
@@ -7580,18 +7731,16 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>164</v>
+        <v>285</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>380</v>
+        <v>287</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>381</v>
-      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>20</v>
       </c>
@@ -7615,13 +7764,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>284</v>
+        <v>20</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>285</v>
+        <v>20</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7639,31 +7788,31 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>379</v>
+        <v>192</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>286</v>
+        <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>382</v>
+        <v>20</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -7671,10 +7820,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>288</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>383</v>
+        <v>210</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7697,18 +7846,16 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>384</v>
+        <v>102</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>385</v>
+        <v>103</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>386</v>
+        <v>104</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>387</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>20</v>
       </c>
@@ -7756,7 +7903,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>383</v>
+        <v>105</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7765,22 +7912,22 @@
         <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>388</v>
+        <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>389</v>
+        <v>106</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>390</v>
+        <v>20</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -7788,10 +7935,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>391</v>
+        <v>289</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>391</v>
+        <v>212</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7802,7 +7949,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -7814,13 +7961,13 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>392</v>
+        <v>109</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>393</v>
+        <v>190</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7859,37 +8006,37 @@
         <v>20</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>391</v>
+        <v>116</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>395</v>
+        <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>20</v>
@@ -7903,10 +8050,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>396</v>
+        <v>290</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>396</v>
+        <v>214</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7914,10 +8061,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -7929,26 +8076,24 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>342</v>
+        <v>130</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>397</v>
+        <v>215</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>398</v>
+        <v>216</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>20</v>
+        <v>291</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>20</v>
@@ -7990,25 +8135,25 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>396</v>
+        <v>219</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>401</v>
+        <v>187</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>20</v>
@@ -8022,10 +8167,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>403</v>
+        <v>292</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>403</v>
+        <v>221</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8048,13 +8193,13 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8081,13 +8226,11 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -8105,7 +8248,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>105</v>
+        <v>227</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8117,10 +8260,10 @@
         <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>20</v>
@@ -8137,21 +8280,23 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>404</v>
+        <v>294</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="D55" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>20</v>
@@ -8163,17 +8308,15 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>109</v>
+        <v>296</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>110</v>
+        <v>297</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>20</v>
@@ -8222,7 +8365,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8231,13 +8374,13 @@
         <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>117</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>20</v>
@@ -8254,46 +8397,42 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>405</v>
+        <v>299</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>405</v>
+        <v>210</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>352</v>
+        <v>20</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>353</v>
+        <v>103</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>20</v>
       </c>
@@ -8341,22 +8480,22 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>355</v>
+        <v>105</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>20</v>
@@ -8373,10 +8512,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>300</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>406</v>
+        <v>212</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8384,10 +8523,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>20</v>
@@ -8399,20 +8538,16 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>407</v>
+        <v>190</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>20</v>
       </c>
@@ -8436,55 +8571,55 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>406</v>
+        <v>116</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>411</v>
+        <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>412</v>
+        <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>413</v>
+        <v>20</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>20</v>
@@ -8492,10 +8627,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>414</v>
+        <v>301</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>414</v>
+        <v>214</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8503,7 +8638,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>88</v>
@@ -8518,26 +8653,24 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>253</v>
+        <v>130</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>415</v>
+        <v>215</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>416</v>
+        <v>216</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>20</v>
+        <v>302</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>20</v>
@@ -8579,10 +8712,10 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>414</v>
+        <v>219</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>88</v>
@@ -8591,19 +8724,19 @@
         <v>20</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>419</v>
+        <v>187</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>420</v>
+        <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>421</v>
+        <v>20</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>20</v>
@@ -8611,21 +8744,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>303</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>422</v>
+        <v>221</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>423</v>
+        <v>20</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>20</v>
@@ -8637,17 +8770,15 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>424</v>
+        <v>222</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>425</v>
+        <v>223</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -8672,13 +8803,11 @@
         <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>20</v>
@@ -8696,13 +8825,13 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>422</v>
+        <v>227</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>20</v>
@@ -8711,16 +8840,16 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>428</v>
+        <v>187</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>429</v>
+        <v>20</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>20</v>
@@ -8728,45 +8857,45 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>305</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>430</v>
+        <v>305</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>384</v>
+        <v>109</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>431</v>
+        <v>306</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>432</v>
+        <v>307</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>433</v>
+        <v>112</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>434</v>
+        <v>308</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -8815,25 +8944,25 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>430</v>
+        <v>309</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>389</v>
+        <v>187</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>435</v>
+        <v>20</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>20</v>
@@ -8847,10 +8976,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>310</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>436</v>
+        <v>310</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8867,25 +8996,23 @@
         <v>20</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>437</v>
+        <v>312</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>440</v>
+        <v>314</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -8934,7 +9061,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>436</v>
+        <v>310</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8949,16 +9076,16 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>441</v>
+        <v>315</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>106</v>
+        <v>316</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>20</v>
+        <v>318</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>20</v>
@@ -8966,10 +9093,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>319</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>442</v>
+        <v>319</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8986,26 +9113,32 @@
         <v>20</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>102</v>
+        <v>320</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>103</v>
+        <v>321</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="R62" t="s" s="2">
         <v>20</v>
       </c>
@@ -9049,7 +9182,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>105</v>
+        <v>319</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9061,16 +9194,16 @@
         <v>20</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AL62" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AM62" t="s" s="2">
-        <v>20</v>
+        <v>327</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>20</v>
@@ -9081,14 +9214,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>443</v>
+        <v>328</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>443</v>
+        <v>328</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9104,21 +9237,23 @@
         <v>20</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>109</v>
+        <v>329</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>111</v>
+        <v>331</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
       </c>
@@ -9166,7 +9301,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>116</v>
+        <v>328</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9178,19 +9313,19 @@
         <v>20</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>106</v>
+        <v>334</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>20</v>
+        <v>335</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>20</v>
+        <v>336</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>20</v>
@@ -9198,14 +9333,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>444</v>
+        <v>337</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>444</v>
+        <v>337</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>352</v>
+        <v>20</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9218,25 +9353,25 @@
         <v>20</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>109</v>
+        <v>338</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>112</v>
+        <v>341</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>241</v>
+        <v>342</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9285,7 +9420,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9297,19 +9432,19 @@
         <v>20</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>187</v>
+        <v>343</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>20</v>
+        <v>344</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>20</v>
@@ -9317,10 +9452,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>445</v>
+        <v>346</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>445</v>
+        <v>346</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9328,7 +9463,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>88</v>
@@ -9343,18 +9478,20 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>446</v>
+        <v>164</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>447</v>
+        <v>347</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>448</v>
+        <v>348</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>20</v>
       </c>
@@ -9378,13 +9515,13 @@
         <v>20</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>20</v>
+        <v>351</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>20</v>
@@ -9402,10 +9539,10 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>445</v>
+        <v>346</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>88</v>
@@ -9417,16 +9554,16 @@
         <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>248</v>
+        <v>353</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>106</v>
+        <v>354</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>450</v>
+        <v>355</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>20</v>
@@ -9434,10 +9571,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>451</v>
+        <v>356</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>451</v>
+        <v>356</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9445,7 +9582,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>88</v>
@@ -9460,16 +9597,20 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>164</v>
+        <v>357</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>452</v>
+        <v>358</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
       </c>
@@ -9493,13 +9634,13 @@
         <v>20</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>454</v>
+        <v>20</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>20</v>
@@ -9517,10 +9658,10 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>451</v>
+        <v>356</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>88</v>
@@ -9532,23 +9673,3551 @@
         <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="P81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI81" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AJ81" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AL81" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AM66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO66" t="s" s="2">
+      <c r="AM81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO96" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO66">
+  <autoFilter ref="A1:AO96">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9558,7 +13227,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI65">
+  <conditionalFormatting sqref="A2:AI95">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$69</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3572" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="472">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T17:56:07+00:00</t>
+    <t>2025-09-05T17:42:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -606,7 +606,7 @@
     <t>Patient.extension</t>
   </si>
   <si>
-    <t>7</t>
+    <t>4</t>
   </si>
   <si>
     <t>Extension</t>
@@ -734,7 +734,7 @@
     <t>gender</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.cqdg.ca/StructureDefinition/QCGender}
+    <t xml:space="preserve">Extension {https://fhir.cqdg.ca/StructureDefinition/Gender}
 </t>
   </si>
   <si>
@@ -742,58 +742,6 @@
   </si>
   <si>
     <t>gender for cqdg project</t>
-  </si>
-  <si>
-    <t>Patient.extension:gender.id</t>
-  </si>
-  <si>
-    <t>Patient.extension:gender.extension</t>
-  </si>
-  <si>
-    <t>Patient.extension:gender.url</t>
-  </si>
-  <si>
-    <t>https://fhir.cqdg.ca/StructureDefinition/QCGender</t>
-  </si>
-  <si>
-    <t>Patient.extension:gender.value[x]</t>
-  </si>
-  <si>
-    <t>https://fhir.cqdg.ca/ValueSet/qc-gender-vs</t>
-  </si>
-  <si>
-    <t>Patient.extension:genderCollectionMethod</t>
-  </si>
-  <si>
-    <t>genderCollectionMethod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://fhir.cqdg.ca/StructureDefinition/GenderCollectionMethod}
-</t>
-  </si>
-  <si>
-    <t>Ferlab.bio Extension/gender-collection-method</t>
-  </si>
-  <si>
-    <t>gender collection method</t>
-  </si>
-  <si>
-    <t>Patient.extension:genderCollectionMethod.id</t>
-  </si>
-  <si>
-    <t>Patient.extension:genderCollectionMethod.extension</t>
-  </si>
-  <si>
-    <t>Patient.extension:genderCollectionMethod.url</t>
-  </si>
-  <si>
-    <t>https://fhir.cqdg.ca/StructureDefinition/GenderCollectionMethod</t>
-  </si>
-  <si>
-    <t>Patient.extension:genderCollectionMethod.value[x]</t>
-  </si>
-  <si>
-    <t>https://fhir.cqdg.ca/ValueSet/gender-collection-method-vs</t>
   </si>
   <si>
     <t>Patient.extension:sexAtBirth</t>
@@ -812,58 +760,6 @@
     <t>Sex at birth for cqdg project</t>
   </si>
   <si>
-    <t>Patient.extension:sexAtBirth.id</t>
-  </si>
-  <si>
-    <t>Patient.extension:sexAtBirth.extension</t>
-  </si>
-  <si>
-    <t>Patient.extension:sexAtBirth.url</t>
-  </si>
-  <si>
-    <t>https://fhir.cqdg.ca/StructureDefinition/SexAtBirth</t>
-  </si>
-  <si>
-    <t>Patient.extension:sexAtBirth.value[x]</t>
-  </si>
-  <si>
-    <t>https://fhir.cqdg.ca/ValueSet/sex-at-birth-vs</t>
-  </si>
-  <si>
-    <t>Patient.extension:sexAtBirthCollectionMethod</t>
-  </si>
-  <si>
-    <t>sexAtBirthCollectionMethod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://fhir.cqdg.ca/StructureDefinition/SexAtBirthCollectionMethod}
-</t>
-  </si>
-  <si>
-    <t>Ferlab.bio Extension/sex-at-birth-collection-method</t>
-  </si>
-  <si>
-    <t>Sex at birth collection method for cqdg project</t>
-  </si>
-  <si>
-    <t>Patient.extension:sexAtBirthCollectionMethod.id</t>
-  </si>
-  <si>
-    <t>Patient.extension:sexAtBirthCollectionMethod.extension</t>
-  </si>
-  <si>
-    <t>Patient.extension:sexAtBirthCollectionMethod.url</t>
-  </si>
-  <si>
-    <t>https://fhir.cqdg.ca/StructureDefinition/SexAtBirthCollectionMethod</t>
-  </si>
-  <si>
-    <t>Patient.extension:sexAtBirthCollectionMethod.value[x]</t>
-  </si>
-  <si>
-    <t>https://fhir.cqdg.ca/ValueSet/sex-at-birth-collection-method-vs</t>
-  </si>
-  <si>
     <t>Patient.extension:race</t>
   </si>
   <si>
@@ -878,58 +774,6 @@
   </si>
   <si>
     <t>race for cqdg project</t>
-  </si>
-  <si>
-    <t>Patient.extension:race.id</t>
-  </si>
-  <si>
-    <t>Patient.extension:race.extension</t>
-  </si>
-  <si>
-    <t>Patient.extension:race.url</t>
-  </si>
-  <si>
-    <t>https://fhir.cqdg.ca/StructureDefinition/Race</t>
-  </si>
-  <si>
-    <t>Patient.extension:race.value[x]</t>
-  </si>
-  <si>
-    <t>https://fhir.cqdg.ca/ValueSet/race-vs</t>
-  </si>
-  <si>
-    <t>Patient.extension:raceCollectionMethod</t>
-  </si>
-  <si>
-    <t>raceCollectionMethod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://fhir.cqdg.ca/StructureDefinition/RaceCollectionMethod}
-</t>
-  </si>
-  <si>
-    <t>Ferlab.bio Extension/race-collection-method</t>
-  </si>
-  <si>
-    <t>race collection method for cqdg project</t>
-  </si>
-  <si>
-    <t>Patient.extension:raceCollectionMethod.id</t>
-  </si>
-  <si>
-    <t>Patient.extension:raceCollectionMethod.extension</t>
-  </si>
-  <si>
-    <t>Patient.extension:raceCollectionMethod.url</t>
-  </si>
-  <si>
-    <t>https://fhir.cqdg.ca/StructureDefinition/RaceCollectionMethod</t>
-  </si>
-  <si>
-    <t>Patient.extension:raceCollectionMethod.value[x]</t>
-  </si>
-  <si>
-    <t>https://fhir.cqdg.ca/ValueSet/race-collection-method-vs</t>
   </si>
   <si>
     <t>Patient.extension:vitalStatus</t>
@@ -1967,7 +1811,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO96"/>
+  <dimension ref="A1:AO69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1976,9 +1820,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.19921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.83984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.74609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="15.2421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1986,7 +1830,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="64.10546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="56.5390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2001,7 +1845,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.51171875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -4938,15 +4782,17 @@
         <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>88</v>
@@ -4961,13 +4807,13 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>104</v>
+        <v>237</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5018,22 +4864,22 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>20</v>
@@ -5050,21 +4896,23 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -5076,13 +4924,13 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>109</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5121,19 +4969,19 @@
         <v>20</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5142,7 +4990,7 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>117</v>
@@ -5165,12 +5013,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>20</v>
       </c>
@@ -5191,24 +5041,22 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>130</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>20</v>
@@ -5250,22 +5098,22 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>20</v>
@@ -5282,10 +5130,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5308,13 +5156,13 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>222</v>
+        <v>102</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>224</v>
+        <v>104</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5341,11 +5189,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5363,7 +5213,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>227</v>
+        <v>105</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5375,10 +5225,10 @@
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>20</v>
@@ -5395,23 +5245,21 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -5423,13 +5271,13 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>241</v>
+        <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5468,19 +5316,19 @@
         <v>20</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5489,7 +5337,7 @@
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>117</v>
@@ -5512,10 +5360,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5523,7 +5371,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>88</v>
@@ -5538,22 +5386,24 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>20</v>
@@ -5595,10 +5445,10 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>88</v>
@@ -5610,7 +5460,7 @@
         <v>20</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>20</v>
@@ -5627,10 +5477,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5641,7 +5491,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
@@ -5653,13 +5503,13 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5686,46 +5536,44 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>20</v>
@@ -5742,50 +5590,52 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>20</v>
@@ -5827,19 +5677,19 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>187</v>
@@ -5859,10 +5709,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5873,7 +5723,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -5882,19 +5732,21 @@
         <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
       </c>
@@ -5918,11 +5770,13 @@
         <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="Y34" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z34" t="s" s="2">
-        <v>249</v>
+        <v>20</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -5940,13 +5794,13 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
@@ -5955,16 +5809,16 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>187</v>
+        <v>264</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>20</v>
+        <v>265</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -5972,20 +5826,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>88</v>
@@ -5994,26 +5846,32 @@
         <v>20</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="R35" t="s" s="2">
         <v>20</v>
       </c>
@@ -6057,28 +5915,28 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>20</v>
+        <v>275</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>20</v>
+        <v>276</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>20</v>
@@ -6089,10 +5947,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>210</v>
+        <v>277</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6103,7 +5961,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -6112,19 +5970,23 @@
         <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>102</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>103</v>
+        <v>279</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
       </c>
@@ -6172,31 +6034,31 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>105</v>
+        <v>277</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>106</v>
+        <v>283</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>20</v>
+        <v>284</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
@@ -6204,10 +6066,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>212</v>
+        <v>286</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6218,7 +6080,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
@@ -6227,19 +6089,23 @@
         <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>109</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
       </c>
@@ -6275,19 +6141,19 @@
         <v>20</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>116</v>
+        <v>286</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6299,19 +6165,19 @@
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>20</v>
+        <v>294</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -6319,10 +6185,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>214</v>
+        <v>295</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6330,7 +6196,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>88</v>
@@ -6342,27 +6208,29 @@
         <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>215</v>
+        <v>296</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>216</v>
+        <v>297</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>20</v>
@@ -6380,13 +6248,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -6404,10 +6272,10 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>219</v>
+        <v>295</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>88</v>
@@ -6416,19 +6284,19 @@
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>187</v>
+        <v>302</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>20</v>
+        <v>303</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6436,10 +6304,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6459,19 +6327,23 @@
         <v>20</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>223</v>
+        <v>307</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6495,11 +6367,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="Y39" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z39" t="s" s="2">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6517,7 +6391,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>227</v>
+        <v>305</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6532,37 +6406,35 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>187</v>
+        <v>311</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>20</v>
+        <v>312</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>20</v>
+        <v>313</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>20</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>88</v>
@@ -6571,22 +6443,26 @@
         <v>20</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>263</v>
+        <v>316</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
       </c>
@@ -6634,31 +6510,31 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>192</v>
+        <v>315</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>20</v>
+        <v>321</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>20</v>
+        <v>322</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6666,10 +6542,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>266</v>
+        <v>323</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>210</v>
+        <v>323</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6680,7 +6556,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -6689,19 +6565,23 @@
         <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>102</v>
+        <v>324</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>103</v>
+        <v>325</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
       </c>
@@ -6749,31 +6629,31 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>105</v>
+        <v>323</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>106</v>
+        <v>329</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>20</v>
+        <v>331</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -6781,10 +6661,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>267</v>
+        <v>332</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>212</v>
+        <v>332</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6795,7 +6675,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -6807,16 +6687,18 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>190</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>191</v>
+        <v>334</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
       </c>
@@ -6840,55 +6722,55 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>20</v>
+        <v>336</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>20</v>
+        <v>337</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>116</v>
+        <v>332</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>20</v>
+        <v>338</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>20</v>
+        <v>340</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -6896,10 +6778,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>268</v>
+        <v>341</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>214</v>
+        <v>341</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6907,7 +6789,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>88</v>
@@ -6922,24 +6804,26 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>130</v>
+        <v>342</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>215</v>
+        <v>343</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>216</v>
+        <v>344</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>269</v>
+        <v>20</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>20</v>
@@ -6981,10 +6865,10 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>219</v>
+        <v>341</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>88</v>
@@ -6993,19 +6877,19 @@
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>187</v>
+        <v>347</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>20</v>
+        <v>348</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -7013,10 +6897,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>221</v>
+        <v>349</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7027,7 +6911,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -7039,16 +6923,20 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>222</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>223</v>
+        <v>351</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
       </c>
@@ -7072,11 +6960,13 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z44" t="s" s="2">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -7094,13 +6984,13 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>227</v>
+        <v>349</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
@@ -7109,16 +6999,16 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>187</v>
+        <v>355</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>20</v>
+        <v>356</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7126,23 +7016,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>272</v>
+        <v>357</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
@@ -7154,16 +7042,20 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>274</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>275</v>
+        <v>359</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
       </c>
@@ -7211,7 +7103,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>192</v>
+        <v>357</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7220,16 +7112,16 @@
         <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>117</v>
+        <v>363</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>20</v>
+        <v>364</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
@@ -7243,10 +7135,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>277</v>
+        <v>365</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>210</v>
+        <v>365</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7358,21 +7250,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>278</v>
+        <v>366</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>212</v>
+        <v>366</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -7387,12 +7279,14 @@
         <v>109</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7429,16 +7323,16 @@
         <v>20</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>116</v>
@@ -7456,7 +7350,7 @@
         <v>117</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>20</v>
@@ -7473,50 +7367,52 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>279</v>
+        <v>367</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>214</v>
+        <v>367</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>20</v>
+        <v>368</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>215</v>
+        <v>369</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>216</v>
+        <v>370</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>20</v>
@@ -7558,19 +7454,19 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>219</v>
+        <v>371</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>187</v>
@@ -7590,10 +7486,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>281</v>
+        <v>372</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>221</v>
+        <v>372</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7604,7 +7500,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -7619,13 +7515,15 @@
         <v>222</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>223</v>
+        <v>373</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>224</v>
+        <v>374</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
       </c>
@@ -7649,11 +7547,13 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="Y49" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="Z49" t="s" s="2">
-        <v>282</v>
+        <v>377</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7671,13 +7571,13 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>227</v>
+        <v>372</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>20</v>
@@ -7686,16 +7586,16 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>187</v>
+        <v>378</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>20</v>
+        <v>379</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
@@ -7703,20 +7603,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>283</v>
+        <v>380</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>88</v>
@@ -7731,16 +7629,18 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>286</v>
+        <v>381</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>287</v>
+        <v>382</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
       </c>
@@ -7788,31 +7688,31 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -7820,10 +7720,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>288</v>
+        <v>385</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>210</v>
+        <v>385</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7834,7 +7734,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
@@ -7846,16 +7746,20 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>102</v>
+        <v>287</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>103</v>
+        <v>386</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
       </c>
@@ -7903,31 +7807,31 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>105</v>
+        <v>385</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AL51" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AM51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>20</v>
+        <v>389</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -7935,10 +7839,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>289</v>
+        <v>390</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>212</v>
+        <v>390</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7949,7 +7853,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -7961,16 +7865,18 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>109</v>
+        <v>324</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>190</v>
+        <v>391</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>191</v>
+        <v>392</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
       </c>
@@ -8006,43 +7912,43 @@
         <v>20</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>116</v>
+        <v>390</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>20</v>
+        <v>329</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>20</v>
+        <v>394</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -8050,10 +7956,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>214</v>
+        <v>395</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8061,7 +7967,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>88</v>
@@ -8076,24 +7982,24 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>215</v>
+        <v>296</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>291</v>
+        <v>20</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>20</v>
@@ -8111,13 +8017,13 @@
         <v>20</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>20</v>
@@ -8135,10 +8041,10 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>219</v>
+        <v>395</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>88</v>
@@ -8147,19 +8053,19 @@
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>187</v>
+        <v>302</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>20</v>
+        <v>398</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
@@ -8167,10 +8073,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>292</v>
+        <v>399</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>221</v>
+        <v>399</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8193,16 +8099,18 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>222</v>
+        <v>400</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>223</v>
+        <v>401</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>224</v>
+        <v>402</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
       </c>
@@ -8226,11 +8134,13 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -8248,7 +8158,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>227</v>
+        <v>399</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8257,22 +8167,22 @@
         <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>20</v>
+        <v>404</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>187</v>
+        <v>405</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>20</v>
+        <v>406</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8280,20 +8190,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>294</v>
+        <v>407</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>88</v>
@@ -8308,13 +8216,13 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>296</v>
+        <v>408</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>297</v>
+        <v>409</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>298</v>
+        <v>410</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8365,25 +8273,25 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>192</v>
+        <v>407</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>20</v>
+        <v>411</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
@@ -8397,10 +8305,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>299</v>
+        <v>412</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>210</v>
+        <v>412</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8411,7 +8319,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>20</v>
@@ -8423,16 +8331,20 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>102</v>
+        <v>358</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>103</v>
+        <v>413</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
       </c>
@@ -8480,25 +8392,25 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>105</v>
+        <v>412</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>106</v>
+        <v>417</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>20</v>
+        <v>418</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>20</v>
@@ -8512,10 +8424,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>300</v>
+        <v>419</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>212</v>
+        <v>419</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8526,7 +8438,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>20</v>
@@ -8538,13 +8450,13 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8583,34 +8495,34 @@
         <v>20</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>20</v>
@@ -8627,21 +8539,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>301</v>
+        <v>420</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>214</v>
+        <v>420</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
@@ -8653,16 +8565,16 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8670,7 +8582,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>302</v>
+        <v>20</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>20</v>
@@ -8712,22 +8624,22 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>219</v>
+        <v>116</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>20</v>
@@ -8744,42 +8656,46 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>303</v>
+        <v>421</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>221</v>
+        <v>421</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>20</v>
+        <v>368</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>222</v>
+        <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>223</v>
+        <v>369</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
       </c>
@@ -8803,11 +8719,13 @@
         <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="Y59" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z59" t="s" s="2">
-        <v>304</v>
+        <v>20</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>20</v>
@@ -8825,19 +8743,19 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>227</v>
+        <v>371</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>187</v>
@@ -8857,45 +8775,45 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>305</v>
+        <v>422</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>305</v>
+        <v>422</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>306</v>
+        <v>423</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>307</v>
+        <v>424</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>112</v>
+        <v>425</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>308</v>
+        <v>426</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -8920,13 +8838,13 @@
         <v>20</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>20</v>
@@ -8944,31 +8862,31 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>309</v>
+        <v>422</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>187</v>
+        <v>427</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>20</v>
+        <v>428</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>20</v>
+        <v>429</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>20</v>
@@ -8976,10 +8894,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>310</v>
+        <v>430</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>310</v>
+        <v>430</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8990,7 +8908,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>20</v>
@@ -8999,20 +8917,22 @@
         <v>20</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>312</v>
+        <v>431</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="O61" t="s" s="2">
-        <v>314</v>
+        <v>434</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -9061,13 +8981,13 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>310</v>
+        <v>430</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>20</v>
@@ -9076,16 +8996,16 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>315</v>
+        <v>435</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>316</v>
+        <v>436</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>318</v>
+        <v>437</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>20</v>
@@ -9093,52 +9013,48 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>319</v>
+        <v>438</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>319</v>
+        <v>438</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>20</v>
+        <v>439</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>320</v>
+        <v>440</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>321</v>
+        <v>441</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>322</v>
+        <v>442</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q62" t="s" s="2">
-        <v>325</v>
-      </c>
+      <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
         <v>20</v>
       </c>
@@ -9182,13 +9098,13 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>319</v>
+        <v>438</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>20</v>
@@ -9197,16 +9113,16 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>326</v>
+        <v>444</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>327</v>
+        <v>20</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>20</v>
+        <v>445</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>20</v>
@@ -9214,10 +9130,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>328</v>
+        <v>446</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>328</v>
+        <v>446</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9228,7 +9144,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>20</v>
@@ -9240,19 +9156,19 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>329</v>
+        <v>400</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>330</v>
+        <v>447</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>331</v>
+        <v>448</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>332</v>
+        <v>449</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>333</v>
+        <v>450</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
@@ -9301,13 +9217,13 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>328</v>
+        <v>446</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>20</v>
@@ -9316,16 +9232,16 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>334</v>
+        <v>405</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>335</v>
+        <v>451</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>336</v>
+        <v>20</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>20</v>
@@ -9333,10 +9249,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>337</v>
+        <v>452</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>337</v>
+        <v>452</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9353,25 +9269,25 @@
         <v>20</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>339</v>
+        <v>453</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>340</v>
+        <v>454</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>341</v>
+        <v>455</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>342</v>
+        <v>456</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9420,7 +9336,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>337</v>
+        <v>452</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9435,16 +9351,16 @@
         <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>343</v>
+        <v>457</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>344</v>
+        <v>106</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>345</v>
+        <v>20</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>20</v>
@@ -9452,10 +9368,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>346</v>
+        <v>458</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>346</v>
+        <v>458</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9475,23 +9391,19 @@
         <v>20</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>347</v>
+        <v>103</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>20</v>
       </c>
@@ -9515,13 +9427,13 @@
         <v>20</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>351</v>
+        <v>20</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>352</v>
+        <v>20</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>20</v>
@@ -9539,7 +9451,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>346</v>
+        <v>105</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9551,19 +9463,19 @@
         <v>20</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>353</v>
+        <v>106</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>354</v>
+        <v>20</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>355</v>
+        <v>20</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>20</v>
@@ -9571,21 +9483,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>356</v>
+        <v>459</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>356</v>
+        <v>459</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>20</v>
@@ -9594,23 +9506,21 @@
         <v>20</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>357</v>
+        <v>109</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>358</v>
+        <v>110</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>359</v>
+        <v>111</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>20</v>
       </c>
@@ -9658,53 +9568,53 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>356</v>
+        <v>116</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>362</v>
+        <v>106</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>363</v>
+        <v>20</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>364</v>
+        <v>20</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>365</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>366</v>
+        <v>460</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>366</v>
+        <v>460</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>20</v>
+        <v>368</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>20</v>
@@ -9716,19 +9626,19 @@
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>367</v>
+        <v>109</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>370</v>
+        <v>112</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>371</v>
+        <v>257</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
@@ -9777,31 +9687,31 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>372</v>
+        <v>187</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>20</v>
@@ -9809,10 +9719,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>374</v>
+        <v>461</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>374</v>
+        <v>461</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9820,10 +9730,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>20</v>
@@ -9835,20 +9745,18 @@
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>375</v>
+        <v>462</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>376</v>
+        <v>463</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>377</v>
+        <v>464</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>20</v>
       </c>
@@ -9896,13 +9804,13 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>374</v>
+        <v>461</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>20</v>
@@ -9911,16 +9819,16 @@
         <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>380</v>
+        <v>264</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>381</v>
+        <v>106</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>382</v>
+        <v>466</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>20</v>
@@ -9928,10 +9836,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>383</v>
+        <v>467</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>383</v>
+        <v>467</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9939,7 +9847,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>88</v>
@@ -9951,21 +9859,19 @@
         <v>20</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>384</v>
+        <v>468</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>385</v>
+        <v>469</v>
       </c>
       <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>386</v>
-      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>20</v>
       </c>
@@ -9989,13 +9895,13 @@
         <v>20</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>387</v>
+        <v>469</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>388</v>
+        <v>470</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>20</v>
@@ -10013,10 +9919,10 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>383</v>
+        <v>467</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>88</v>
@@ -10028,3196 +9934,23 @@
         <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>389</v>
+        <v>471</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>390</v>
+        <v>106</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>391</v>
+        <v>20</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="P71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="P72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="P75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="P76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="P77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="P78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="P79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="P80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="P81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="P83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="P86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="P87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O89" s="2"/>
-      <c r="P89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="P90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="P91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O93" s="2"/>
-      <c r="P93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="P94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O95" s="2"/>
-      <c r="P95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO96" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO96">
+  <autoFilter ref="A1:AO69">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13227,7 +9960,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI95">
+  <conditionalFormatting sqref="A2:AI68">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T17:42:32+00:00</t>
+    <t>2025-09-12T13:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -440,7 +440,7 @@
     <t>Patient.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -478,7 +478,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -502,7 +502,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -545,7 +545,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -1070,7 +1070,7 @@
     <t>The domestic partnership status of a person.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/marital-status</t>
+    <t>http://hl7.org/fhir/ValueSet/marital-status|4.0.1</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -1199,7 +1199,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
   </si>
   <si>
     <t>code</t>
@@ -1268,7 +1268,7 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1392,7 +1392,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Organization|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1463,7 +1463,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1845,7 +1845,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.33203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T13:34:32+00:00</t>
+    <t>2025-09-16T14:36:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="473">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T14:36:01+00:00</t>
+    <t>2025-09-18T19:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>Patient.meta.tag</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>Tags applied to this resource</t>
@@ -2930,10 +2933,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -3164,10 +3167,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -3182,13 +3185,13 @@
         <v>142</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3214,13 +3217,13 @@
         <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>20</v>
@@ -3238,7 +3241,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3270,10 +3273,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3299,13 +3302,13 @@
         <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3355,7 +3358,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3387,10 +3390,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3413,16 +3416,16 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3448,13 +3451,13 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -3472,7 +3475,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3504,14 +3507,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3530,16 +3533,16 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3589,7 +3592,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3604,7 +3607,7 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>20</v>
@@ -3621,14 +3624,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3647,16 +3650,16 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3706,7 +3709,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3721,7 +3724,7 @@
         <v>20</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>20</v>
@@ -3738,10 +3741,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3749,7 +3752,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>80</v>
@@ -3767,10 +3770,10 @@
         <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3819,7 +3822,7 @@
         <v>115</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3851,13 +3854,13 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>20</v>
@@ -3879,13 +3882,13 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3936,7 +3939,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3945,7 +3948,7 @@
         <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>117</v>
@@ -3968,13 +3971,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>20</v>
@@ -3996,13 +3999,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4053,7 +4056,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4062,7 +4065,7 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>117</v>
@@ -4085,13 +4088,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>20</v>
@@ -4113,13 +4116,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4170,7 +4173,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4179,7 +4182,7 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>117</v>
@@ -4202,10 +4205,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4317,10 +4320,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4346,10 +4349,10 @@
         <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4432,10 +4435,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4461,13 +4464,13 @@
         <v>130</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4475,7 +4478,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>20</v>
@@ -4517,7 +4520,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>88</v>
@@ -4532,7 +4535,7 @@
         <v>20</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>20</v>
@@ -4549,10 +4552,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4575,13 +4578,13 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4608,11 +4611,11 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4630,7 +4633,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4645,7 +4648,7 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>20</v>
@@ -4662,13 +4665,13 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>20</v>
@@ -4690,13 +4693,13 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4747,7 +4750,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4756,7 +4759,7 @@
         <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>117</v>
@@ -4779,13 +4782,13 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>20</v>
@@ -4807,13 +4810,13 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4864,7 +4867,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4873,7 +4876,7 @@
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>117</v>
@@ -4896,13 +4899,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>20</v>
@@ -4924,13 +4927,13 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4981,7 +4984,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4990,7 +4993,7 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>117</v>
@@ -5013,13 +5016,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>20</v>
@@ -5041,13 +5044,13 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5098,7 +5101,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5107,7 +5110,7 @@
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>117</v>
@@ -5130,10 +5133,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5245,10 +5248,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5274,10 +5277,10 @@
         <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5360,10 +5363,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5389,13 +5392,13 @@
         <v>130</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5403,7 +5406,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>20</v>
@@ -5445,7 +5448,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>88</v>
@@ -5460,7 +5463,7 @@
         <v>20</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>20</v>
@@ -5477,10 +5480,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5503,13 +5506,13 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5536,11 +5539,11 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -5558,7 +5561,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5573,7 +5576,7 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>20</v>
@@ -5590,10 +5593,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5619,16 +5622,16 @@
         <v>109</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5677,7 +5680,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5692,7 +5695,7 @@
         <v>117</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>20</v>
@@ -5709,10 +5712,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5735,17 +5738,17 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5794,7 +5797,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5809,16 +5812,16 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -5826,10 +5829,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5852,70 +5855,70 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q35" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q35" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5930,13 +5933,13 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>20</v>
@@ -5947,10 +5950,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5973,19 +5976,19 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -6034,7 +6037,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6049,16 +6052,16 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
@@ -6066,10 +6069,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6092,19 +6095,19 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -6153,7 +6156,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6168,16 +6171,16 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -6185,10 +6188,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6211,19 +6214,19 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6248,13 +6251,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -6272,7 +6275,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6287,16 +6290,16 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6304,10 +6307,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6330,19 +6333,19 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6391,7 +6394,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6406,27 +6409,27 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6449,19 +6452,19 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6510,7 +6513,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6525,7 +6528,7 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>106</v>
@@ -6534,7 +6537,7 @@
         <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6542,10 +6545,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6568,19 +6571,19 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6629,7 +6632,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6644,16 +6647,16 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -6661,10 +6664,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6687,17 +6690,17 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6725,10 +6728,10 @@
         <v>146</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
@@ -6746,7 +6749,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6761,16 +6764,16 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -6778,10 +6781,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6804,19 +6807,19 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -6865,7 +6868,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6880,7 +6883,7 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>106</v>
@@ -6889,7 +6892,7 @@
         <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -6897,10 +6900,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6923,19 +6926,19 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -6984,7 +6987,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6999,7 +7002,7 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>106</v>
@@ -7008,7 +7011,7 @@
         <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7016,10 +7019,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7042,19 +7045,19 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7103,7 +7106,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7115,10 +7118,10 @@
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>106</v>
@@ -7135,10 +7138,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7250,10 +7253,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7367,14 +7370,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7396,16 +7399,16 @@
         <v>109</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7454,7 +7457,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7469,7 +7472,7 @@
         <v>117</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>20</v>
@@ -7486,10 +7489,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7512,17 +7515,17 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7550,10 +7553,10 @@
         <v>146</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7571,7 +7574,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7586,7 +7589,7 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>106</v>
@@ -7595,7 +7598,7 @@
         <v>20</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
@@ -7603,10 +7606,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7629,17 +7632,17 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7688,7 +7691,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7703,7 +7706,7 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>106</v>
@@ -7712,7 +7715,7 @@
         <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -7720,10 +7723,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7746,19 +7749,19 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7807,7 +7810,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7822,7 +7825,7 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>106</v>
@@ -7831,7 +7834,7 @@
         <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -7839,10 +7842,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7865,17 +7868,17 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -7924,7 +7927,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7939,7 +7942,7 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>106</v>
@@ -7948,7 +7951,7 @@
         <v>20</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -7956,10 +7959,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7982,17 +7985,17 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8017,13 +8020,13 @@
         <v>20</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>20</v>
@@ -8041,7 +8044,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8056,7 +8059,7 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>106</v>
@@ -8065,7 +8068,7 @@
         <v>20</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
@@ -8073,10 +8076,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8099,17 +8102,17 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8158,7 +8161,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8167,13 +8170,13 @@
         <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>106</v>
@@ -8182,7 +8185,7 @@
         <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8190,10 +8193,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8216,13 +8219,13 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8273,7 +8276,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8288,7 +8291,7 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>106</v>
@@ -8305,10 +8308,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8331,19 +8334,19 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -8392,7 +8395,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8407,10 +8410,10 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>20</v>
@@ -8424,10 +8427,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8539,10 +8542,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8656,14 +8659,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8685,16 +8688,16 @@
         <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -8743,7 +8746,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8758,7 +8761,7 @@
         <v>117</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>20</v>
@@ -8775,10 +8778,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8801,19 +8804,19 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -8838,13 +8841,13 @@
         <v>20</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>20</v>
@@ -8862,7 +8865,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>88</v>
@@ -8877,16 +8880,16 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>20</v>
@@ -8894,10 +8897,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8920,19 +8923,19 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -8981,7 +8984,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8996,16 +8999,16 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>20</v>
@@ -9013,14 +9016,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9039,16 +9042,16 @@
         <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9098,7 +9101,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9113,7 +9116,7 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>106</v>
@@ -9122,7 +9125,7 @@
         <v>20</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>20</v>
@@ -9130,10 +9133,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9156,19 +9159,19 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
@@ -9217,7 +9220,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9232,10 +9235,10 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>20</v>
@@ -9249,10 +9252,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9275,19 +9278,19 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9336,7 +9339,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9351,7 +9354,7 @@
         <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>106</v>
@@ -9368,10 +9371,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9483,10 +9486,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9600,14 +9603,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9629,16 +9632,16 @@
         <v>109</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
@@ -9687,7 +9690,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9702,7 +9705,7 @@
         <v>117</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>20</v>
@@ -9719,10 +9722,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9745,16 +9748,16 @@
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9804,7 +9807,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>88</v>
@@ -9819,7 +9822,7 @@
         <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>106</v>
@@ -9828,7 +9831,7 @@
         <v>20</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>20</v>
@@ -9836,10 +9839,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9862,13 +9865,13 @@
         <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9895,13 +9898,13 @@
         <v>20</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>20</v>
@@ -9919,7 +9922,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>88</v>
@@ -9934,7 +9937,7 @@
         <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>106</v>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T19:56:42+00:00</t>
+    <t>2025-09-18T20:45:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T20:45:23+00:00</t>
+    <t>2025-09-22T20:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T20:20:13+00:00</t>
+    <t>2025-09-23T20:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:31:36+00:00</t>
+    <t>2025-09-23T20:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:38:56+00:00</t>
+    <t>2026-01-20T16:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3852,7 +3852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>194</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>200</v>
       </c>
@@ -9954,12 +9954,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO69">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/docs/StructureDefinition-cqdg-patient.xlsx
+++ b/docs/StructureDefinition-cqdg-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T16:06:26+00:00</t>
+    <t>2026-01-22T16:34:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
